--- a/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1474">
   <si>
     <t>NEW kpi_level_2</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">INSERT IGNORE INTO `static`.`kpi_level_2` (`type`, `client_name`, `kpi_family_fk`, `version`, `numerator_type_fk`, `denominator_type_fk`, `kpi_score_type_fk`, `kpi_result_type_fk`, `valid_from`, `valid_until`, `delete_time`, `initiated_by`, `context_type_fk`, `kpi_calculation_stage_fk`, `session_relevance`, `scene_relevance`, `planogram_relevance`, `live_session_relevance`, `live_scene_relevance`, `kpi_target_type_fk`, `is_percent`) VALUES </t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>AVAILABILITY</t>
   </si>
   <si>
@@ -253,15 +256,9 @@
     <t>CASHIER DISPLAY DOBRY 0.2</t>
   </si>
   <si>
-    <t>CASHIER DISPLAY DOBRY 0.2 ZONE</t>
-  </si>
-  <si>
     <t>CASHIER DISPLAY ENTRY PACK</t>
   </si>
   <si>
-    <t>CASHIER DISPLAY ENTRY PACK ZONE</t>
-  </si>
-  <si>
     <t>COOLERS</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
     <t>SCHWEPPES - POMEGRANATE - 0.33L</t>
   </si>
   <si>
+    <t>FANTA ANY - 0.33L</t>
+  </si>
+  <si>
     <t>COCA-COLA VANILLA - 0.33L</t>
   </si>
   <si>
@@ -805,6 +805,12 @@
     <t>PARASITES: DOBRY AT CASH ZONE</t>
   </si>
   <si>
+    <t>BURN/MONSTER AT CASH ZONE</t>
+  </si>
+  <si>
+    <t>CC ENERGY AT CASH ZONE</t>
+  </si>
+  <si>
     <t>PARASITES: COKE/DOBRY IN BREAD/BAKERY</t>
   </si>
   <si>
@@ -877,13 +883,10 @@
     <t>SCHWEPPES MOJITO - 0.9L</t>
   </si>
   <si>
-    <t>BONAQUA STILL - 2L</t>
-  </si>
-  <si>
     <t>BONAQUA STILL - 5L</t>
   </si>
   <si>
-    <t>BONAQUA ANY - 2L/1.5L</t>
+    <t>BONAQUA CARB - 2L/1.5L</t>
   </si>
   <si>
     <t>BONAQUA VIVA - LIME - 0.5L</t>
@@ -1162,16 +1165,10 @@
     <t>CASHIER DISPLAYS: LEAD SKU</t>
   </si>
   <si>
-    <t>CASHIER DISPLAYS: COCA-COLA ENERGY</t>
-  </si>
-  <si>
-    <t>CASHIER DISPLAYS: BURN</t>
-  </si>
-  <si>
-    <t>CASHIER DISPLAYS: MONSTER</t>
-  </si>
-  <si>
-    <t>CASHIER DISPLAYS: DOBRIY</t>
+    <t>CASHIER TRAY: BURN/MONSTER</t>
+  </si>
+  <si>
+    <t>CASHIER TRAY: CC ENERGY</t>
   </si>
   <si>
     <t>SSD SHELF: SPRITE - 0.9L</t>
@@ -1207,6 +1204,9 @@
     <t>PARASITES: RICH IN CUSTOMER COOLER</t>
   </si>
   <si>
+    <t>PARASITES: SSD/JUICE IN SWEET SNACKS</t>
+  </si>
+  <si>
     <t>TEA DISPLAY</t>
   </si>
   <si>
@@ -1267,9 +1267,6 @@
     <t>COOLER IS VISIBLE</t>
   </si>
   <si>
-    <t>COOLER WO OTHER PRODUCTS</t>
-  </si>
-  <si>
     <t>MENU ACTIVATION</t>
   </si>
   <si>
@@ -1381,9 +1378,6 @@
     <t>BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB</t>
   </si>
   <si>
-    <t>VISIBLE COOLER</t>
-  </si>
-  <si>
     <t>MENU ACTIVATION: IMAGE/INSERT</t>
   </si>
   <si>
@@ -1744,15 +1738,9 @@
     <t>Прикассовый дисплей Добрый 0.2 фейсы</t>
   </si>
   <si>
-    <t>Прикассовый дисплей Добрый 0.2 Зона</t>
-  </si>
-  <si>
     <t>Прикассовый дисплей Entry Pack фейсы</t>
   </si>
   <si>
-    <t>Прикассовый дисплей Entry Pack Зона</t>
-  </si>
-  <si>
     <t>Холодильники</t>
   </si>
   <si>
@@ -1915,6 +1903,9 @@
     <t>Спрайт - 1.5л</t>
   </si>
   <si>
+    <t>Фанта Любая - 0.33л</t>
+  </si>
+  <si>
     <t>Кока-Кола Ванила - 0.33л</t>
   </si>
   <si>
@@ -2278,6 +2269,12 @@
     <t>Паразит: Добрый в Прикассовой зоне</t>
   </si>
   <si>
+    <t>Берн/Монстер в Прикассовой зоне</t>
+  </si>
+  <si>
+    <t>Кола Энерджи в Прикассовой зоне</t>
+  </si>
+  <si>
     <t>Паразит: Кока-Кола/Добрый в Хлебе/Выпечке</t>
   </si>
   <si>
@@ -2338,13 +2335,10 @@
     <t>Швеппс Мохито - 1л</t>
   </si>
   <si>
-    <t>БонАква Негаз - 2л</t>
-  </si>
-  <si>
     <t>БонАква Негаз - 5л</t>
   </si>
   <si>
-    <t>БонАква Любая - 2/1.5л</t>
+    <t>БонАква Газ - 2/1.5л</t>
   </si>
   <si>
     <t>БонАква Вива - Лайм - 0.5л</t>
@@ -2623,16 +2617,10 @@
     <t>Прикассовые Дисплеи: Основной СКЮ</t>
   </si>
   <si>
-    <t>Прикассовые Дисплеи: Кока-Кола Энерджи</t>
-  </si>
-  <si>
-    <t>Прикассовые Дисплеи: Берн</t>
-  </si>
-  <si>
-    <t>Прикассовые Дисплеи: Монстер</t>
-  </si>
-  <si>
-    <t>Прикассовые Дисплеи: Добрый</t>
+    <t>Прикассовый Дисплей: Берн/Монстер</t>
+  </si>
+  <si>
+    <t>Прикассовый Дисплей: Кола Энерджи</t>
   </si>
   <si>
     <t>SSD полка: Спрайт - 0.9л/1л</t>
@@ -2668,6 +2656,9 @@
     <t>Паразит: Рич в ХО клиента</t>
   </si>
   <si>
+    <t>Паразит: SSD/Добрый в сладких снеках</t>
+  </si>
+  <si>
     <t>Чай Дисплей</t>
   </si>
   <si>
@@ -2719,9 +2710,6 @@
     <t>ХО виден</t>
   </si>
   <si>
-    <t>ХО без посторонней продукции</t>
-  </si>
-  <si>
     <t>Активация Меню</t>
   </si>
   <si>
@@ -2833,9 +2821,6 @@
     <t>БонАква Газ - 0.33л стекло/Негаз 0.75л стекло</t>
   </si>
   <si>
-    <t>Видимый ХО</t>
-  </si>
-  <si>
     <t>Активация Меню: Имиджи/Вкладка</t>
   </si>
   <si>
@@ -3196,15 +3181,9 @@
     <t>('CASHIER DISPLAY DOBRY 0.2', 'Прикассовый дисплей Добрый 0.2 фейсы', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('CASHIER DISPLAY DOBRY 0.2 ZONE', 'Прикассовый дисплей Добрый 0.2 Зона', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
     <t>('CASHIER DISPLAY ENTRY PACK', 'Прикассовый дисплей Entry Pack фейсы', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('CASHIER DISPLAY ENTRY PACK ZONE', 'Прикассовый дисплей Entry Pack Зона', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
     <t>('COOLERS', 'Холодильники', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -3382,6 +3361,9 @@
     <t>('SCHWEPPES - POMEGRANATE - 0.33L', 'Швеппс Гранат - 0.33л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
+    <t>('FANTA ANY - 0.33L', 'Фанта Любая - 0.33л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
     <t>('COCA-COLA VANILLA - 0.33L', 'Кока-Кола Ванила - 0.33л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -3748,6 +3730,12 @@
     <t>('PARASITES: DOBRY AT CASH ZONE', 'Паразит: Добрый в Прикассовой зоне', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
+    <t>('BURN/MONSTER AT CASH ZONE', 'Берн/Монстер в Прикассовой зоне', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('CC ENERGY AT CASH ZONE', 'Кола Энерджи в Прикассовой зоне', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
     <t>('PARASITES: COKE/DOBRY IN BREAD/BAKERY', 'Паразит: Кока-Кола/Добрый в Хлебе/Выпечке', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -3820,13 +3808,10 @@
     <t>('SCHWEPPES MOJITO - 0.9L', 'Швеппс Мохито - 1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('BONAQUA STILL - 2L', 'БонАква Негаз - 2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
     <t>('BONAQUA STILL - 5L', 'БонАква Негаз - 5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('BONAQUA ANY - 2L/1.5L', 'БонАква Любая - 2/1.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+    <t>('BONAQUA CARB - 2L/1.5L', 'БонАква Газ - 2/1.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
     <t>('BONAQUA VIVA - LIME - 0.5L', 'БонАква Вива - Лайм - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
@@ -4105,16 +4090,10 @@
     <t>('CASHIER DISPLAYS: LEAD SKU', 'Прикассовые Дисплеи: Основной СКЮ', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('CASHIER DISPLAYS: COCA-COLA ENERGY', 'Прикассовые Дисплеи: Кока-Кола Энерджи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CASHIER DISPLAYS: BURN', 'Прикассовые Дисплеи: Берн', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CASHIER DISPLAYS: MONSTER', 'Прикассовые Дисплеи: Монстер', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CASHIER DISPLAYS: DOBRIY', 'Прикассовые Дисплеи: Добрый', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+    <t>('CASHIER TRAY: BURN/MONSTER', 'Прикассовый Дисплей: Берн/Монстер', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('CASHIER TRAY: CC ENERGY', 'Прикассовый Дисплей: Кола Энерджи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
     <t>('SSD SHELF: SPRITE - 0.9L', 'SSD полка: Спрайт - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
@@ -4150,6 +4129,9 @@
     <t>('PARASITES: RICH IN CUSTOMER COOLER', 'Паразит: Рич в ХО клиента', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
+    <t>('PARASITES: SSD/JUICE IN SWEET SNACKS', 'Паразит: SSD/Добрый в сладких снеках', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
     <t>('TEA DISPLAY', 'Чай Дисплей', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -4210,9 +4192,6 @@
     <t>('COOLER IS VISIBLE', 'ХО виден', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
-    <t>('COOLER WO OTHER PRODUCTS', 'ХО без посторонней продукции', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
     <t>('MENU ACTIVATION', 'Активация Меню', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -4322,9 +4301,6 @@
   </si>
   <si>
     <t>('BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB', 'БонАква Газ - 0.33л стекло/Негаз 0.75л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('VISIBLE COOLER', 'Видимый ХО', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
     <t>('MENU ACTIVATION: IMAGE/INSERT', 'Активация Меню: Имиджи/Вкладка', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
@@ -4817,7 +4793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4839,5469 +4815,5457 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D4" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D7" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D8" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D9" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D11" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D13" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D18" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D22" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D24" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D26" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D27" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D28" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D29" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D30" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D31" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D33" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D34" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D36" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D37" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D38" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D39" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D40" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D41" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D42" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D43" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D44" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D45" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D46" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D47" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D48" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D49" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D50" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D51" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D52" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D53" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D54" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D55" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D56" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D57" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D58" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D59" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D60" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D61" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D62" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D63" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D64" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D65" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D66" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D67" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D68" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D69" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D70" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D71" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D72" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D73" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D74" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D76" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D78" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D79" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D80" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D81" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D82" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D83" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D84" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D85" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D86" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D87" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D91" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>591</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D93" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="D94" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="D96" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D97" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D98" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D99" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D100" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D101" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D102" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D103" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D104" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D105" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D106" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D107" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D108" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D109" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D110" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D111" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D112" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D113" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D114" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D115" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D116" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D117" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D118" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D119" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D120" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D121" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D122" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D123" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D124" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>622</v>
+        <v>571</v>
       </c>
       <c r="D125" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D126" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="D127" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
+        <v>622</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C129" t="s">
+        <v>623</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="B130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" t="s">
         <v>624</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D130" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
+      <c r="C131" t="s">
+        <v>625</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="B132" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" t="s">
+        <v>626</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
+      <c r="C133" t="s">
+        <v>627</v>
+      </c>
+      <c r="D133" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
-      <c r="B129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" t="s">
-        <v>625</v>
-      </c>
-      <c r="D129" t="s">
+    <row r="134" spans="1:4">
+      <c r="B134" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" t="s">
+        <v>628</v>
+      </c>
+      <c r="D134" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
-      <c r="B130" t="s">
-        <v>132</v>
-      </c>
-      <c r="C130" t="s">
-        <v>626</v>
-      </c>
-      <c r="D130" t="s">
+    <row r="135" spans="1:4">
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="C135" t="s">
+        <v>509</v>
+      </c>
+      <c r="D135" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
-      <c r="B131" t="s">
-        <v>133</v>
-      </c>
-      <c r="C131" t="s">
-        <v>627</v>
-      </c>
-      <c r="D131" t="s">
+    <row r="136" spans="1:4">
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+      <c r="C136" t="s">
+        <v>513</v>
+      </c>
+      <c r="D136" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
-      <c r="B132" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" t="s">
-        <v>628</v>
-      </c>
-      <c r="D132" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" t="s">
+        <v>629</v>
+      </c>
+      <c r="D137" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
-      <c r="B133" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" t="s">
-        <v>629</v>
-      </c>
-      <c r="D133" t="s">
+    <row r="138" spans="1:4">
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" t="s">
+        <v>630</v>
+      </c>
+      <c r="D138" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="134" spans="2:4">
-      <c r="B134" t="s">
-        <v>136</v>
-      </c>
-      <c r="C134" t="s">
-        <v>630</v>
-      </c>
-      <c r="D134" t="s">
+    <row r="139" spans="1:4">
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" t="s">
+        <v>631</v>
+      </c>
+      <c r="D139" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
-      <c r="B135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" t="s">
-        <v>631</v>
-      </c>
-      <c r="D135" t="s">
+    <row r="140" spans="1:4">
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" t="s">
+        <v>632</v>
+      </c>
+      <c r="D140" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
-      <c r="B136" t="s">
-        <v>138</v>
-      </c>
-      <c r="C136" t="s">
-        <v>632</v>
-      </c>
-      <c r="D136" t="s">
+    <row r="141" spans="1:4">
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
+      <c r="C141" t="s">
+        <v>633</v>
+      </c>
+      <c r="D141" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="137" spans="2:4">
-      <c r="B137" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" t="s">
-        <v>511</v>
-      </c>
-      <c r="D137" t="s">
+    <row r="142" spans="1:4">
+      <c r="B142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" t="s">
+        <v>634</v>
+      </c>
+      <c r="D142" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
-      <c r="B138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" t="s">
-        <v>515</v>
-      </c>
-      <c r="D138" t="s">
+    <row r="143" spans="1:4">
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" t="s">
+        <v>635</v>
+      </c>
+      <c r="D143" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
-      <c r="B139" t="s">
-        <v>141</v>
-      </c>
-      <c r="C139" t="s">
-        <v>633</v>
-      </c>
-      <c r="D139" t="s">
+    <row r="144" spans="1:4">
+      <c r="B144" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" t="s">
+        <v>636</v>
+      </c>
+      <c r="D144" t="s">
         <v>1122</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4">
-      <c r="B140" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" t="s">
-        <v>634</v>
-      </c>
-      <c r="D140" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
-      <c r="B141" t="s">
-        <v>143</v>
-      </c>
-      <c r="C141" t="s">
-        <v>635</v>
-      </c>
-      <c r="D141" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
-      <c r="B142" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" t="s">
-        <v>636</v>
-      </c>
-      <c r="D142" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
-      <c r="B143" t="s">
-        <v>145</v>
-      </c>
-      <c r="C143" t="s">
-        <v>637</v>
-      </c>
-      <c r="D143" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
-      <c r="B144" t="s">
-        <v>146</v>
-      </c>
-      <c r="C144" t="s">
-        <v>638</v>
-      </c>
-      <c r="D144" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D145" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D146" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D147" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D148" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D149" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D150" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D151" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D152" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D154" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D155" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D156" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D157" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D158" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D159" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D160" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D161" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D162" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D163" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D164" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D165" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D166" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D167" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D168" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D169" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D170" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D171" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D172" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D173" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D174" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D175" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D176" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D177" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D178" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D179" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D180" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D181" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D182" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D183" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D184" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D185" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D186" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D187" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D188" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D189" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D190" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D191" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D192" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D193" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D194" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D195" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D196" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D197" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D198" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D199" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D200" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D201" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D202" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D203" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D204" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D205" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D206" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D207" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D208" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D209" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D210" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D211" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D212" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D213" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D214" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D215" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D216" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D217" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D218" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D219" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D220" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D221" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D222" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D223" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D224" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D225" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D226" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D227" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D228" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D229" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C230" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D230" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D231" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C232" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D232" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C233" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D233" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C234" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D234" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C235" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D235" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D236" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D237" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D238" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C239" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D239" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C240" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D240" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D241" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D242" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D243" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D244" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C245" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D245" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D246" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C247" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D247" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D248" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>743</v>
+        <v>588</v>
       </c>
       <c r="D249" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>592</v>
+        <v>741</v>
       </c>
       <c r="D250" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D251" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D252" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D253" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D254" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D255" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C256" t="s">
+        <v>747</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="B257" t="s">
+        <v>260</v>
+      </c>
+      <c r="C257" t="s">
+        <v>748</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="B258" t="s">
+        <v>261</v>
+      </c>
+      <c r="C258" t="s">
         <v>749</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D258" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="B259" t="s">
+        <v>262</v>
+      </c>
+      <c r="C259" t="s">
+        <v>750</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>263</v>
+      </c>
+      <c r="C260" t="s">
+        <v>751</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>264</v>
+      </c>
+      <c r="C261" t="s">
+        <v>752</v>
+      </c>
+      <c r="D261" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="257" spans="2:4">
-      <c r="B257" t="s">
-        <v>259</v>
-      </c>
-      <c r="C257" t="s">
-        <v>750</v>
-      </c>
-      <c r="D257" t="s">
+    <row r="262" spans="1:4">
+      <c r="B262" t="s">
+        <v>265</v>
+      </c>
+      <c r="C262" t="s">
+        <v>753</v>
+      </c>
+      <c r="D262" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="258" spans="2:4">
-      <c r="B258" t="s">
-        <v>260</v>
-      </c>
-      <c r="C258" t="s">
-        <v>751</v>
-      </c>
-      <c r="D258" t="s">
+    <row r="263" spans="1:4">
+      <c r="B263" t="s">
+        <v>266</v>
+      </c>
+      <c r="C263" t="s">
+        <v>754</v>
+      </c>
+      <c r="D263" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="259" spans="2:4">
-      <c r="B259" t="s">
-        <v>261</v>
-      </c>
-      <c r="C259" t="s">
-        <v>752</v>
-      </c>
-      <c r="D259" t="s">
+    <row r="264" spans="1:4">
+      <c r="B264" t="s">
+        <v>267</v>
+      </c>
+      <c r="C264" t="s">
+        <v>755</v>
+      </c>
+      <c r="D264" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
-      <c r="B260" t="s">
-        <v>262</v>
-      </c>
-      <c r="C260" t="s">
-        <v>753</v>
-      </c>
-      <c r="D260" t="s">
+    <row r="265" spans="1:4">
+      <c r="B265" t="s">
+        <v>268</v>
+      </c>
+      <c r="C265" t="s">
+        <v>756</v>
+      </c>
+      <c r="D265" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="261" spans="2:4">
-      <c r="B261" t="s">
-        <v>263</v>
-      </c>
-      <c r="C261" t="s">
-        <v>754</v>
-      </c>
-      <c r="D261" t="s">
+    <row r="266" spans="1:4">
+      <c r="B266" t="s">
+        <v>269</v>
+      </c>
+      <c r="C266" t="s">
+        <v>757</v>
+      </c>
+      <c r="D266" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="262" spans="2:4">
-      <c r="B262" t="s">
-        <v>264</v>
-      </c>
-      <c r="C262" t="s">
-        <v>755</v>
-      </c>
-      <c r="D262" t="s">
+    <row r="267" spans="1:4">
+      <c r="B267" t="s">
+        <v>270</v>
+      </c>
+      <c r="C267" t="s">
+        <v>758</v>
+      </c>
+      <c r="D267" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="263" spans="2:4">
-      <c r="B263" t="s">
-        <v>265</v>
-      </c>
-      <c r="C263" t="s">
-        <v>756</v>
-      </c>
-      <c r="D263" t="s">
+    <row r="268" spans="1:4">
+      <c r="B268" t="s">
+        <v>271</v>
+      </c>
+      <c r="C268" t="s">
+        <v>759</v>
+      </c>
+      <c r="D268" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="264" spans="2:4">
-      <c r="B264" t="s">
-        <v>266</v>
-      </c>
-      <c r="C264" t="s">
-        <v>757</v>
-      </c>
-      <c r="D264" t="s">
+    <row r="269" spans="1:4">
+      <c r="B269" t="s">
+        <v>272</v>
+      </c>
+      <c r="C269" t="s">
+        <v>666</v>
+      </c>
+      <c r="D269" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
-      <c r="B265" t="s">
-        <v>267</v>
-      </c>
-      <c r="C265" t="s">
-        <v>758</v>
-      </c>
-      <c r="D265" t="s">
+    <row r="270" spans="1:4">
+      <c r="B270" t="s">
+        <v>273</v>
+      </c>
+      <c r="C270" t="s">
+        <v>667</v>
+      </c>
+      <c r="D270" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="266" spans="2:4">
-      <c r="B266" t="s">
-        <v>268</v>
-      </c>
-      <c r="C266" t="s">
-        <v>759</v>
-      </c>
-      <c r="D266" t="s">
+    <row r="271" spans="1:4">
+      <c r="B271" t="s">
+        <v>274</v>
+      </c>
+      <c r="C271" t="s">
+        <v>668</v>
+      </c>
+      <c r="D271" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
-      <c r="B267" t="s">
-        <v>269</v>
-      </c>
-      <c r="C267" t="s">
+    <row r="272" spans="1:4">
+      <c r="B272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>670</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="B273" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" t="s">
         <v>760</v>
       </c>
-      <c r="D267" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="B268" t="s">
-        <v>270</v>
-      </c>
-      <c r="C268" t="s">
-        <v>669</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="D273" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="269" spans="2:4">
-      <c r="B269" t="s">
-        <v>271</v>
-      </c>
-      <c r="C269" t="s">
-        <v>670</v>
-      </c>
-      <c r="D269" t="s">
+    <row r="274" spans="1:4">
+      <c r="B274" t="s">
+        <v>277</v>
+      </c>
+      <c r="C274" t="s">
+        <v>761</v>
+      </c>
+      <c r="D274" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="270" spans="2:4">
-      <c r="B270" t="s">
-        <v>272</v>
-      </c>
-      <c r="C270" t="s">
-        <v>671</v>
-      </c>
-      <c r="D270" t="s">
+    <row r="275" spans="1:4">
+      <c r="B275" t="s">
+        <v>278</v>
+      </c>
+      <c r="C275" t="s">
+        <v>762</v>
+      </c>
+      <c r="D275" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="271" spans="2:4">
-      <c r="B271" t="s">
-        <v>273</v>
-      </c>
-      <c r="C271" t="s">
-        <v>673</v>
-      </c>
-      <c r="D271" t="s">
+    <row r="276" spans="1:4">
+      <c r="B276" t="s">
+        <v>279</v>
+      </c>
+      <c r="C276" t="s">
+        <v>763</v>
+      </c>
+      <c r="D276" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="272" spans="2:4">
-      <c r="B272" t="s">
-        <v>274</v>
-      </c>
-      <c r="C272" t="s">
-        <v>761</v>
-      </c>
-      <c r="D272" t="s">
+    <row r="277" spans="1:4">
+      <c r="B277" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" t="s">
+        <v>764</v>
+      </c>
+      <c r="D277" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="273" spans="2:4">
-      <c r="B273" t="s">
-        <v>275</v>
-      </c>
-      <c r="C273" t="s">
-        <v>762</v>
-      </c>
-      <c r="D273" t="s">
+    <row r="278" spans="1:4">
+      <c r="B278" t="s">
+        <v>281</v>
+      </c>
+      <c r="C278" t="s">
+        <v>765</v>
+      </c>
+      <c r="D278" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="274" spans="2:4">
-      <c r="B274" t="s">
-        <v>276</v>
-      </c>
-      <c r="C274" t="s">
-        <v>763</v>
-      </c>
-      <c r="D274" t="s">
+    <row r="279" spans="1:4">
+      <c r="B279" t="s">
+        <v>282</v>
+      </c>
+      <c r="C279" t="s">
+        <v>766</v>
+      </c>
+      <c r="D279" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="275" spans="2:4">
-      <c r="B275" t="s">
-        <v>277</v>
-      </c>
-      <c r="C275" t="s">
-        <v>764</v>
-      </c>
-      <c r="D275" t="s">
+    <row r="280" spans="1:4">
+      <c r="B280" t="s">
+        <v>283</v>
+      </c>
+      <c r="C280" t="s">
+        <v>767</v>
+      </c>
+      <c r="D280" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="276" spans="2:4">
-      <c r="B276" t="s">
-        <v>278</v>
-      </c>
-      <c r="C276" t="s">
-        <v>765</v>
-      </c>
-      <c r="D276" t="s">
+    <row r="281" spans="1:4">
+      <c r="B281" t="s">
+        <v>284</v>
+      </c>
+      <c r="C281" t="s">
+        <v>768</v>
+      </c>
+      <c r="D281" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="277" spans="2:4">
-      <c r="B277" t="s">
-        <v>279</v>
-      </c>
-      <c r="C277" t="s">
-        <v>766</v>
-      </c>
-      <c r="D277" t="s">
+    <row r="282" spans="1:4">
+      <c r="B282" t="s">
+        <v>285</v>
+      </c>
+      <c r="C282" t="s">
+        <v>769</v>
+      </c>
+      <c r="D282" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="278" spans="2:4">
-      <c r="B278" t="s">
-        <v>280</v>
-      </c>
-      <c r="C278" t="s">
-        <v>767</v>
-      </c>
-      <c r="D278" t="s">
+    <row r="283" spans="1:4">
+      <c r="B283" t="s">
+        <v>286</v>
+      </c>
+      <c r="C283" t="s">
+        <v>770</v>
+      </c>
+      <c r="D283" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="279" spans="2:4">
-      <c r="B279" t="s">
-        <v>281</v>
-      </c>
-      <c r="C279" t="s">
-        <v>768</v>
-      </c>
-      <c r="D279" t="s">
+    <row r="284" spans="1:4">
+      <c r="B284" t="s">
+        <v>287</v>
+      </c>
+      <c r="C284" t="s">
+        <v>771</v>
+      </c>
+      <c r="D284" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="280" spans="2:4">
-      <c r="B280" t="s">
-        <v>282</v>
-      </c>
-      <c r="C280" t="s">
-        <v>769</v>
-      </c>
-      <c r="D280" t="s">
+    <row r="285" spans="1:4">
+      <c r="B285" t="s">
+        <v>288</v>
+      </c>
+      <c r="C285" t="s">
+        <v>772</v>
+      </c>
+      <c r="D285" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="281" spans="2:4">
-      <c r="B281" t="s">
-        <v>283</v>
-      </c>
-      <c r="C281" t="s">
-        <v>770</v>
-      </c>
-      <c r="D281" t="s">
+    <row r="286" spans="1:4">
+      <c r="B286" t="s">
+        <v>289</v>
+      </c>
+      <c r="C286" t="s">
+        <v>773</v>
+      </c>
+      <c r="D286" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="282" spans="2:4">
-      <c r="B282" t="s">
-        <v>284</v>
-      </c>
-      <c r="C282" t="s">
-        <v>771</v>
-      </c>
-      <c r="D282" t="s">
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>290</v>
+      </c>
+      <c r="C287" t="s">
+        <v>774</v>
+      </c>
+      <c r="D287" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="283" spans="2:4">
-      <c r="B283" t="s">
-        <v>285</v>
-      </c>
-      <c r="C283" t="s">
-        <v>772</v>
-      </c>
-      <c r="D283" t="s">
+    <row r="288" spans="1:4">
+      <c r="B288" t="s">
+        <v>291</v>
+      </c>
+      <c r="C288" t="s">
+        <v>775</v>
+      </c>
+      <c r="D288" t="s">
         <v>1266</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4">
-      <c r="B284" t="s">
-        <v>286</v>
-      </c>
-      <c r="C284" t="s">
-        <v>773</v>
-      </c>
-      <c r="D284" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4">
-      <c r="B285" t="s">
-        <v>287</v>
-      </c>
-      <c r="C285" t="s">
-        <v>774</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4">
-      <c r="B286" t="s">
-        <v>288</v>
-      </c>
-      <c r="C286" t="s">
-        <v>775</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4">
-      <c r="B287" t="s">
-        <v>289</v>
-      </c>
-      <c r="C287" t="s">
-        <v>776</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4">
-      <c r="B288" t="s">
-        <v>290</v>
-      </c>
-      <c r="C288" t="s">
-        <v>777</v>
-      </c>
-      <c r="D288" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C289" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D289" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C290" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D290" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D291" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D292" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D293" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C294" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D294" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C295" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D295" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C296" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D296" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C297" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D297" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C298" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D298" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C299" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D299" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C300" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D300" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C301" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D301" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C302" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D302" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C303" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D303" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D304" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D305" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D306" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D307" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="308" spans="2:4">
       <c r="B308" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C308" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D308" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="309" spans="2:4">
       <c r="B309" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C309" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D309" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="310" spans="2:4">
       <c r="B310" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D310" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="311" spans="2:4">
       <c r="B311" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D311" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="312" spans="2:4">
       <c r="B312" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D312" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="313" spans="2:4">
       <c r="B313" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C313" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D313" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="314" spans="2:4">
       <c r="B314" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C314" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D314" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="315" spans="2:4">
       <c r="B315" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C315" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D315" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="316" spans="2:4">
       <c r="B316" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D316" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="317" spans="2:4">
       <c r="B317" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C317" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D317" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="318" spans="2:4">
       <c r="B318" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C318" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D318" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="319" spans="2:4">
       <c r="B319" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C319" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D319" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="320" spans="2:4">
       <c r="B320" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C320" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D320" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="321" spans="2:4">
       <c r="B321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C321" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D321" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="322" spans="2:4">
       <c r="B322" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C322" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D322" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="323" spans="2:4">
       <c r="B323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C323" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D323" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="B324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C324" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D324" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="325" spans="2:4">
       <c r="B325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C325" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D325" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="326" spans="2:4">
       <c r="B326" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C326" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D326" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="327" spans="2:4">
       <c r="B327" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C327" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D327" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="328" spans="2:4">
       <c r="B328" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C328" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D328" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="329" spans="2:4">
       <c r="B329" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C329" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D329" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="330" spans="2:4">
       <c r="B330" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C330" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D330" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="331" spans="2:4">
       <c r="B331" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C331" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D331" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="332" spans="2:4">
       <c r="B332" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C332" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D332" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="333" spans="2:4">
       <c r="B333" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C333" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D333" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="334" spans="2:4">
       <c r="B334" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C334" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D334" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="335" spans="2:4">
       <c r="B335" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C335" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D335" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="336" spans="2:4">
       <c r="B336" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C336" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D336" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="337" spans="2:4">
       <c r="B337" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C337" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D337" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="338" spans="2:4">
       <c r="B338" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C338" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D338" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="339" spans="2:4">
       <c r="B339" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C339" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D339" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="340" spans="2:4">
       <c r="B340" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C340" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D340" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="341" spans="2:4">
       <c r="B341" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C341" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D341" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="342" spans="2:4">
       <c r="B342" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C342" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D342" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="343" spans="2:4">
       <c r="B343" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C343" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D343" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="344" spans="2:4">
       <c r="B344" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C344" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D344" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="345" spans="2:4">
       <c r="B345" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C345" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D345" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="346" spans="2:4">
       <c r="B346" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D346" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="347" spans="2:4">
       <c r="B347" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C347" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D347" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="348" spans="2:4">
       <c r="B348" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C348" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D348" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="349" spans="2:4">
       <c r="B349" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C349" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D349" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="350" spans="2:4">
       <c r="B350" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C350" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D350" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="351" spans="2:4">
       <c r="B351" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C351" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D351" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="352" spans="2:4">
       <c r="B352" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C352" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D352" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="353" spans="2:4">
       <c r="B353" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C353" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D353" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="354" spans="2:4">
       <c r="B354" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C354" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D354" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="355" spans="2:4">
       <c r="B355" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C355" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D355" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="356" spans="2:4">
       <c r="B356" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C356" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D356" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="357" spans="2:4">
       <c r="B357" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C357" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D357" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="358" spans="2:4">
       <c r="B358" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C358" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D358" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="359" spans="2:4">
       <c r="B359" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C359" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D359" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="360" spans="2:4">
       <c r="B360" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C360" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D360" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="361" spans="2:4">
       <c r="B361" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C361" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D361" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="362" spans="2:4">
       <c r="B362" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C362" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D362" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="363" spans="2:4">
       <c r="B363" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C363" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D363" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="364" spans="2:4">
       <c r="B364" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C364" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D364" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="365" spans="2:4">
       <c r="B365" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C365" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D365" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="366" spans="2:4">
       <c r="B366" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C366" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D366" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="367" spans="2:4">
       <c r="B367" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C367" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D367" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="368" spans="2:4">
       <c r="B368" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C368" t="s">
+        <v>855</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="B369" t="s">
+        <v>372</v>
+      </c>
+      <c r="C369" t="s">
+        <v>856</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="B370" t="s">
+        <v>373</v>
+      </c>
+      <c r="C370" t="s">
         <v>857</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D370" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="B371" t="s">
+        <v>374</v>
+      </c>
+      <c r="C371" t="s">
+        <v>858</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="B372" t="s">
+        <v>375</v>
+      </c>
+      <c r="C372" t="s">
+        <v>859</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="B373" t="s">
+        <v>376</v>
+      </c>
+      <c r="C373" t="s">
+        <v>860</v>
+      </c>
+      <c r="D373" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="369" spans="2:4">
-      <c r="B369" t="s">
-        <v>371</v>
-      </c>
-      <c r="C369" t="s">
-        <v>858</v>
-      </c>
-      <c r="D369" t="s">
+    <row r="374" spans="1:4">
+      <c r="B374" t="s">
+        <v>377</v>
+      </c>
+      <c r="C374" t="s">
+        <v>861</v>
+      </c>
+      <c r="D374" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="370" spans="2:4">
-      <c r="B370" t="s">
-        <v>372</v>
-      </c>
-      <c r="C370" t="s">
-        <v>859</v>
-      </c>
-      <c r="D370" t="s">
+    <row r="375" spans="1:4">
+      <c r="B375" t="s">
+        <v>378</v>
+      </c>
+      <c r="C375" t="s">
+        <v>862</v>
+      </c>
+      <c r="D375" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="371" spans="2:4">
-      <c r="B371" t="s">
-        <v>373</v>
-      </c>
-      <c r="C371" t="s">
-        <v>860</v>
-      </c>
-      <c r="D371" t="s">
+    <row r="376" spans="1:4">
+      <c r="B376" t="s">
+        <v>379</v>
+      </c>
+      <c r="C376" t="s">
+        <v>863</v>
+      </c>
+      <c r="D376" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="372" spans="2:4">
-      <c r="B372" t="s">
-        <v>374</v>
-      </c>
-      <c r="C372" t="s">
-        <v>861</v>
-      </c>
-      <c r="D372" t="s">
+    <row r="377" spans="1:4">
+      <c r="B377" t="s">
+        <v>380</v>
+      </c>
+      <c r="C377" t="s">
+        <v>864</v>
+      </c>
+      <c r="D377" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="373" spans="2:4">
-      <c r="B373" t="s">
-        <v>375</v>
-      </c>
-      <c r="C373" t="s">
-        <v>862</v>
-      </c>
-      <c r="D373" t="s">
+    <row r="378" spans="1:4">
+      <c r="B378" t="s">
+        <v>381</v>
+      </c>
+      <c r="C378" t="s">
+        <v>865</v>
+      </c>
+      <c r="D378" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="374" spans="2:4">
-      <c r="B374" t="s">
-        <v>376</v>
-      </c>
-      <c r="C374" t="s">
-        <v>863</v>
-      </c>
-      <c r="D374" t="s">
+    <row r="379" spans="1:4">
+      <c r="B379" t="s">
+        <v>382</v>
+      </c>
+      <c r="C379" t="s">
+        <v>866</v>
+      </c>
+      <c r="D379" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="375" spans="2:4">
-      <c r="B375" t="s">
-        <v>377</v>
-      </c>
-      <c r="C375" t="s">
-        <v>864</v>
-      </c>
-      <c r="D375" t="s">
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>383</v>
+      </c>
+      <c r="C380" t="s">
+        <v>867</v>
+      </c>
+      <c r="D380" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="376" spans="2:4">
-      <c r="B376" t="s">
-        <v>378</v>
-      </c>
-      <c r="C376" t="s">
-        <v>865</v>
-      </c>
-      <c r="D376" t="s">
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>384</v>
+      </c>
+      <c r="C381" t="s">
+        <v>868</v>
+      </c>
+      <c r="D381" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="377" spans="2:4">
-      <c r="B377" t="s">
-        <v>379</v>
-      </c>
-      <c r="C377" t="s">
-        <v>866</v>
-      </c>
-      <c r="D377" t="s">
+    <row r="382" spans="1:4">
+      <c r="B382" t="s">
+        <v>385</v>
+      </c>
+      <c r="C382" t="s">
+        <v>869</v>
+      </c>
+      <c r="D382" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="378" spans="2:4">
-      <c r="B378" t="s">
-        <v>380</v>
-      </c>
-      <c r="C378" t="s">
-        <v>867</v>
-      </c>
-      <c r="D378" t="s">
+    <row r="383" spans="1:4">
+      <c r="B383" t="s">
+        <v>386</v>
+      </c>
+      <c r="C383" t="s">
+        <v>870</v>
+      </c>
+      <c r="D383" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="379" spans="2:4">
-      <c r="B379" t="s">
-        <v>381</v>
-      </c>
-      <c r="C379" t="s">
-        <v>868</v>
-      </c>
-      <c r="D379" t="s">
+    <row r="384" spans="1:4">
+      <c r="B384" t="s">
+        <v>387</v>
+      </c>
+      <c r="C384" t="s">
+        <v>871</v>
+      </c>
+      <c r="D384" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="380" spans="2:4">
-      <c r="B380" t="s">
-        <v>382</v>
-      </c>
-      <c r="C380" t="s">
-        <v>869</v>
-      </c>
-      <c r="D380" t="s">
+    <row r="385" spans="1:4">
+      <c r="B385" t="s">
+        <v>388</v>
+      </c>
+      <c r="C385" t="s">
+        <v>872</v>
+      </c>
+      <c r="D385" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="381" spans="2:4">
-      <c r="B381" t="s">
-        <v>383</v>
-      </c>
-      <c r="C381" t="s">
-        <v>870</v>
-      </c>
-      <c r="D381" t="s">
+    <row r="386" spans="1:4">
+      <c r="B386" t="s">
+        <v>389</v>
+      </c>
+      <c r="C386" t="s">
+        <v>873</v>
+      </c>
+      <c r="D386" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="382" spans="2:4">
-      <c r="B382" t="s">
-        <v>384</v>
-      </c>
-      <c r="C382" t="s">
-        <v>871</v>
-      </c>
-      <c r="D382" t="s">
+    <row r="387" spans="1:4">
+      <c r="B387" t="s">
+        <v>390</v>
+      </c>
+      <c r="C387" t="s">
+        <v>874</v>
+      </c>
+      <c r="D387" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="383" spans="2:4">
-      <c r="B383" t="s">
-        <v>385</v>
-      </c>
-      <c r="C383" t="s">
-        <v>872</v>
-      </c>
-      <c r="D383" t="s">
+    <row r="388" spans="1:4">
+      <c r="B388" t="s">
+        <v>391</v>
+      </c>
+      <c r="C388" t="s">
+        <v>875</v>
+      </c>
+      <c r="D388" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="384" spans="2:4">
-      <c r="B384" t="s">
-        <v>386</v>
-      </c>
-      <c r="C384" t="s">
-        <v>873</v>
-      </c>
-      <c r="D384" t="s">
+    <row r="389" spans="1:4">
+      <c r="B389" t="s">
+        <v>392</v>
+      </c>
+      <c r="C389" t="s">
+        <v>876</v>
+      </c>
+      <c r="D389" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="385" spans="2:4">
-      <c r="B385" t="s">
-        <v>387</v>
-      </c>
-      <c r="C385" t="s">
-        <v>874</v>
-      </c>
-      <c r="D385" t="s">
+    <row r="390" spans="1:4">
+      <c r="B390" t="s">
+        <v>393</v>
+      </c>
+      <c r="C390" t="s">
+        <v>877</v>
+      </c>
+      <c r="D390" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="386" spans="2:4">
-      <c r="B386" t="s">
-        <v>388</v>
-      </c>
-      <c r="C386" t="s">
-        <v>875</v>
-      </c>
-      <c r="D386" t="s">
+    <row r="391" spans="1:4">
+      <c r="B391" t="s">
+        <v>394</v>
+      </c>
+      <c r="C391" t="s">
+        <v>878</v>
+      </c>
+      <c r="D391" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="387" spans="2:4">
-      <c r="B387" t="s">
-        <v>389</v>
-      </c>
-      <c r="C387" t="s">
-        <v>876</v>
-      </c>
-      <c r="D387" t="s">
+    <row r="392" spans="1:4">
+      <c r="B392" t="s">
+        <v>395</v>
+      </c>
+      <c r="C392" t="s">
+        <v>879</v>
+      </c>
+      <c r="D392" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="388" spans="2:4">
-      <c r="B388" t="s">
-        <v>390</v>
-      </c>
-      <c r="C388" t="s">
-        <v>877</v>
-      </c>
-      <c r="D388" t="s">
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>396</v>
+      </c>
+      <c r="C393" t="s">
+        <v>880</v>
+      </c>
+      <c r="D393" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="389" spans="2:4">
-      <c r="B389" t="s">
-        <v>391</v>
-      </c>
-      <c r="C389" t="s">
-        <v>878</v>
-      </c>
-      <c r="D389" t="s">
+    <row r="394" spans="1:4">
+      <c r="B394" t="s">
+        <v>397</v>
+      </c>
+      <c r="C394" t="s">
+        <v>881</v>
+      </c>
+      <c r="D394" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="390" spans="2:4">
-      <c r="B390" t="s">
-        <v>392</v>
-      </c>
-      <c r="C390" t="s">
-        <v>879</v>
-      </c>
-      <c r="D390" t="s">
+    <row r="395" spans="1:4">
+      <c r="B395" t="s">
+        <v>398</v>
+      </c>
+      <c r="C395" t="s">
+        <v>882</v>
+      </c>
+      <c r="D395" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="391" spans="2:4">
-      <c r="B391" t="s">
-        <v>393</v>
-      </c>
-      <c r="C391" t="s">
-        <v>880</v>
-      </c>
-      <c r="D391" t="s">
+    <row r="396" spans="1:4">
+      <c r="B396" t="s">
+        <v>399</v>
+      </c>
+      <c r="C396" t="s">
+        <v>883</v>
+      </c>
+      <c r="D396" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="392" spans="2:4">
-      <c r="B392" t="s">
-        <v>394</v>
-      </c>
-      <c r="C392" t="s">
-        <v>881</v>
-      </c>
-      <c r="D392" t="s">
+    <row r="397" spans="1:4">
+      <c r="B397" t="s">
+        <v>400</v>
+      </c>
+      <c r="C397" t="s">
+        <v>884</v>
+      </c>
+      <c r="D397" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="393" spans="2:4">
-      <c r="B393" t="s">
-        <v>395</v>
-      </c>
-      <c r="C393" t="s">
-        <v>882</v>
-      </c>
-      <c r="D393" t="s">
+    <row r="398" spans="1:4">
+      <c r="B398" t="s">
+        <v>401</v>
+      </c>
+      <c r="C398" t="s">
+        <v>885</v>
+      </c>
+      <c r="D398" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="394" spans="2:4">
-      <c r="B394" t="s">
-        <v>396</v>
-      </c>
-      <c r="C394" t="s">
-        <v>883</v>
-      </c>
-      <c r="D394" t="s">
+    <row r="399" spans="1:4">
+      <c r="B399" t="s">
+        <v>402</v>
+      </c>
+      <c r="C399" t="s">
+        <v>886</v>
+      </c>
+      <c r="D399" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="395" spans="2:4">
-      <c r="B395" t="s">
-        <v>397</v>
-      </c>
-      <c r="C395" t="s">
-        <v>884</v>
-      </c>
-      <c r="D395" t="s">
+    <row r="400" spans="1:4">
+      <c r="B400" t="s">
+        <v>403</v>
+      </c>
+      <c r="C400" t="s">
+        <v>696</v>
+      </c>
+      <c r="D400" t="s">
         <v>1378</v>
-      </c>
-    </row>
-    <row r="396" spans="2:4">
-      <c r="B396" t="s">
-        <v>398</v>
-      </c>
-      <c r="C396" t="s">
-        <v>885</v>
-      </c>
-      <c r="D396" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4">
-      <c r="B397" t="s">
-        <v>399</v>
-      </c>
-      <c r="C397" t="s">
-        <v>886</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="398" spans="2:4">
-      <c r="B398" t="s">
-        <v>400</v>
-      </c>
-      <c r="C398" t="s">
-        <v>887</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="399" spans="2:4">
-      <c r="B399" t="s">
-        <v>401</v>
-      </c>
-      <c r="C399" t="s">
-        <v>888</v>
-      </c>
-      <c r="D399" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4">
-      <c r="B400" t="s">
-        <v>402</v>
-      </c>
-      <c r="C400" t="s">
-        <v>889</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="401" spans="2:4">
       <c r="B401" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C401" t="s">
-        <v>699</v>
+        <v>635</v>
       </c>
       <c r="D401" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="402" spans="2:4">
       <c r="B402" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C402" t="s">
-        <v>638</v>
+        <v>761</v>
       </c>
       <c r="D402" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="403" spans="2:4">
       <c r="B403" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C403" t="s">
-        <v>762</v>
+        <v>887</v>
       </c>
       <c r="D403" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="B404" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C404" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D404" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="405" spans="2:4">
       <c r="B405" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C405" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D405" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="406" spans="2:4">
       <c r="B406" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C406" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D406" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="407" spans="2:4">
       <c r="B407" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C407" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D407" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="408" spans="2:4">
       <c r="B408" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C408" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D408" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="409" spans="2:4">
       <c r="B409" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C409" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D409" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="410" spans="2:4">
       <c r="B410" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C410" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D410" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="411" spans="2:4">
       <c r="B411" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C411" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D411" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="412" spans="2:4">
       <c r="B412" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C412" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D412" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="413" spans="2:4">
       <c r="B413" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C413" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D413" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="414" spans="2:4">
       <c r="B414" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C414" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D414" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="415" spans="2:4">
       <c r="B415" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C415" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D415" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="416" spans="2:4">
       <c r="B416" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C416" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D416" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="417" spans="2:4">
       <c r="B417" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C417" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D417" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="418" spans="2:4">
       <c r="B418" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C418" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D418" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="419" spans="2:4">
       <c r="B419" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C419" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D419" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="420" spans="2:4">
       <c r="B420" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C420" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D420" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="421" spans="2:4">
       <c r="B421" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C421" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D421" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="422" spans="2:4">
       <c r="B422" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C422" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D422" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="423" spans="2:4">
       <c r="B423" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C423" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D423" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="424" spans="2:4">
       <c r="B424" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C424" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D424" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="425" spans="2:4">
       <c r="B425" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C425" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D425" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="426" spans="2:4">
       <c r="B426" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C426" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D426" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="427" spans="2:4">
       <c r="B427" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C427" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D427" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="428" spans="2:4">
       <c r="B428" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C428" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D428" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="429" spans="2:4">
       <c r="B429" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C429" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D429" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="430" spans="2:4">
       <c r="B430" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C430" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D430" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="431" spans="2:4">
       <c r="B431" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C431" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D431" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="432" spans="2:4">
       <c r="B432" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C432" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D432" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="433" spans="2:4">
       <c r="B433" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C433" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D433" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="434" spans="2:4">
       <c r="B434" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C434" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D434" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="435" spans="2:4">
       <c r="B435" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C435" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D435" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="436" spans="2:4">
       <c r="B436" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C436" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D436" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="437" spans="2:4">
       <c r="B437" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C437" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D437" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="438" spans="2:4">
       <c r="B438" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C438" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D438" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="439" spans="2:4">
       <c r="B439" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C439" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D439" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="440" spans="2:4">
       <c r="B440" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C440" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D440" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="441" spans="2:4">
       <c r="B441" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C441" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D441" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="442" spans="2:4">
       <c r="B442" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C442" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D442" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="443" spans="2:4">
       <c r="B443" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C443" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D443" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="444" spans="2:4">
       <c r="B444" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C444" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D444" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="445" spans="2:4">
       <c r="B445" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C445" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D445" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="446" spans="2:4">
       <c r="B446" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C446" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D446" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="447" spans="2:4">
       <c r="B447" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C447" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D447" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="448" spans="2:4">
       <c r="B448" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C448" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D448" t="s">
-        <v>1431</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="449" spans="2:4">
       <c r="B449" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C449" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D449" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="450" spans="2:4">
       <c r="B450" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C450" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D450" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="451" spans="2:4">
       <c r="B451" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C451" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D451" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="452" spans="2:4">
       <c r="B452" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C452" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D452" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="453" spans="2:4">
       <c r="B453" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C453" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D453" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="454" spans="2:4">
       <c r="B454" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C454" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D454" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="455" spans="2:4">
       <c r="B455" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C455" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D455" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="456" spans="2:4">
       <c r="B456" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C456" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D456" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="457" spans="2:4">
       <c r="B457" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C457" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D457" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="458" spans="2:4">
       <c r="B458" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C458" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D458" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="459" spans="2:4">
       <c r="B459" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C459" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D459" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="460" spans="2:4">
       <c r="B460" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C460" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D460" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="461" spans="2:4">
       <c r="B461" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C461" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D461" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="462" spans="2:4">
       <c r="B462" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C462" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D462" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="463" spans="2:4">
       <c r="B463" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C463" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D463" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="464" spans="2:4">
       <c r="B464" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C464" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D464" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="465" spans="2:4">
       <c r="B465" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C465" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D465" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="466" spans="2:4">
       <c r="B466" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C466" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D466" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="467" spans="2:4">
       <c r="B467" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C467" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D467" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="468" spans="2:4">
       <c r="B468" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C468" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D468" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="469" spans="2:4">
       <c r="B469" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C469" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D469" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="470" spans="2:4">
       <c r="B470" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C470" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D470" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="471" spans="2:4">
       <c r="B471" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C471" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D471" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="472" spans="2:4">
       <c r="B472" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C472" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D472" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="473" spans="2:4">
       <c r="B473" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C473" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D473" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="474" spans="2:4">
       <c r="B474" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C474" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D474" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="475" spans="2:4">
       <c r="B475" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C475" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D475" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="476" spans="2:4">
       <c r="B476" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C476" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D476" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="477" spans="2:4">
       <c r="B477" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C477" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D477" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="478" spans="2:4">
       <c r="B478" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C478" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D478" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="479" spans="2:4">
       <c r="B479" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C479" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D479" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="480" spans="2:4">
       <c r="B480" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C480" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D480" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="481" spans="2:4">
       <c r="B481" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C481" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D481" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="482" spans="2:4">
       <c r="B482" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C482" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D482" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="483" spans="2:4">
       <c r="B483" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C483" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D483" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="484" spans="2:4">
       <c r="B484" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C484" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D484" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="485" spans="2:4">
       <c r="B485" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C485" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D485" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="486" spans="2:4">
       <c r="B486" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C486" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D486" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="487" spans="2:4">
       <c r="B487" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C487" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D487" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="488" spans="2:4">
       <c r="B488" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C488" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D488" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="489" spans="2:4">
       <c r="B489" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C489" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D489" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="490" spans="2:4">
       <c r="B490" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C490" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D490" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="491" spans="2:4">
       <c r="B491" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C491" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D491" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="492" spans="2:4">
       <c r="B492" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C492" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D492" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="493" spans="2:4">
       <c r="B493" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C493" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D493" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="494" spans="2:4">
       <c r="B494" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C494" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D494" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="495" spans="2:4">
       <c r="B495" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C495" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D495" t="s">
-        <v>1478</v>
-      </c>
-    </row>
-    <row r="496" spans="2:4">
-      <c r="B496" t="s">
-        <v>498</v>
-      </c>
-      <c r="C496" t="s">
-        <v>982</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="497" spans="2:4">
-      <c r="B497" t="s">
-        <v>499</v>
-      </c>
-      <c r="C497" t="s">
-        <v>983</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="498" spans="2:4">
-      <c r="B498" t="s">
-        <v>500</v>
-      </c>
-      <c r="C498" t="s">
-        <v>984</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1475">
   <si>
     <t>NEW kpi_level_2</t>
   </si>
@@ -1207,6 +1207,9 @@
     <t>PARASITES: SSD/JUICE IN SWEET SNACKS</t>
   </si>
   <si>
+    <t>SSD DISPLAY 2D: LEAD SKU COCA-COLA - 1.5L</t>
+  </si>
+  <si>
     <t>TEA DISPLAY</t>
   </si>
   <si>
@@ -1240,267 +1243,267 @@
     <t>SCHWEPPES TONIC - 0.25L</t>
   </si>
   <si>
+    <t>SCHWEPPES GINGER 0.25L</t>
+  </si>
+  <si>
+    <t>SPRITE/FANTA 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>BONAQUA STILL - 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>BONAQUA CARB - 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>RICH - APPLE - 0.2L</t>
+  </si>
+  <si>
+    <t>RICH - ORANGE/CHERRY - 0.2L</t>
+  </si>
+  <si>
+    <t>BURN ORIGINAL - 0.25L</t>
+  </si>
+  <si>
+    <t>COOLER IS VISIBLE</t>
+  </si>
+  <si>
+    <t>MENU ACTIVATION</t>
+  </si>
+  <si>
+    <t>IMPULSE DISPLAY</t>
+  </si>
+  <si>
+    <t>TABLE ACTIVATION</t>
+  </si>
+  <si>
+    <t>TABLE: IMAGES</t>
+  </si>
+  <si>
+    <t>COCA-COLA ORANGE - 0.5L</t>
+  </si>
+  <si>
+    <t>FUZE RASPBERRY-MINT/APPLE-KIWI - 0.5L</t>
+  </si>
+  <si>
+    <t>DOBRIY - APPLE - 0.33L/RICH - APPLE - 0.3L</t>
+  </si>
+  <si>
+    <t>DOBRIY - MULTIFRUIT - 0.33L/RICH - ORANGE - 0.3L</t>
+  </si>
+  <si>
+    <t>DOBRIY - PEACH-APPLE - 0.33L/RICH MANGO ORANGE - 0.3L</t>
+  </si>
+  <si>
+    <t>ACTIVATION BUFET LINE</t>
+  </si>
+  <si>
+    <t>COMBO</t>
+  </si>
+  <si>
+    <t>COKE&amp;FOOD</t>
+  </si>
+  <si>
+    <t>COKE&amp;FOOD: COCA-COLA</t>
+  </si>
+  <si>
+    <t>COKE&amp;FOOD: FOOD</t>
+  </si>
+  <si>
+    <t>JUICE&amp;MEAL</t>
+  </si>
+  <si>
+    <t>JUICE&amp;MEAL: JUICE</t>
+  </si>
+  <si>
+    <t>JUICE&amp;MEAL: FOOD</t>
+  </si>
+  <si>
+    <t>FANTA MANGUAVA/PEAR/SPRITE MOJITO - 0.5L</t>
+  </si>
+  <si>
+    <t>BONAQUA STILL - 0.5L/SMARTWATER - 0.6L</t>
+  </si>
+  <si>
+    <t>COMBO: COCA-COLA</t>
+  </si>
+  <si>
+    <t>COMBO: FOOD</t>
+  </si>
+  <si>
+    <t>COMBO2</t>
+  </si>
+  <si>
+    <t>COMBO2: COCA-COLA</t>
+  </si>
+  <si>
+    <t>COMBO2: FOOD</t>
+  </si>
+  <si>
+    <t>COMBO: OTHER</t>
+  </si>
+  <si>
+    <t>JUICE AND MEAL: IMAGE</t>
+  </si>
+  <si>
+    <t>JUICE AND MEAL: FOOD</t>
+  </si>
+  <si>
+    <t>SCHWEPPES ANY - 0.25L</t>
+  </si>
+  <si>
+    <t>COCA-COLA VANILLA - 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>SPRITE - 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>FANTA ORANGE - 0.33L NRGB</t>
+  </si>
+  <si>
+    <t>RICH - ORANGE - 0.2L</t>
+  </si>
+  <si>
+    <t>RICH - CHERRY - 0.2L</t>
+  </si>
+  <si>
+    <t>COMBO: IMAGE</t>
+  </si>
+  <si>
+    <t>COMBO: BESTSELLER</t>
+  </si>
+  <si>
+    <t>SCHWEPPES GINGER - 0.25L</t>
+  </si>
+  <si>
+    <t>BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB</t>
+  </si>
+  <si>
+    <t>MENU ACTIVATION: IMAGE/INSERT</t>
+  </si>
+  <si>
+    <t>MENU: COMBO</t>
+  </si>
+  <si>
+    <t>MENU COMBO: BESTSELLER</t>
+  </si>
+  <si>
+    <t>COMBO BESTSELLER: IMAGE</t>
+  </si>
+  <si>
+    <t>COMBO BESTSELLER: BESTSELLER</t>
+  </si>
+  <si>
+    <t>MENU COMBO: MIXABILITY/MOCKTAILS</t>
+  </si>
+  <si>
+    <t>COMBO MIXABILITY: IMAGE</t>
+  </si>
+  <si>
+    <t>COMBO MIXABILITY: MIXABILITY</t>
+  </si>
+  <si>
+    <t>FANTA MANGUAVA/SHOKATA/SPRITE MOJITO - 0.5L</t>
+  </si>
+  <si>
+    <t>BURN APPLE KIWI/LEMON ICE - 0.5L</t>
+  </si>
+  <si>
+    <t>FUZE RSBR-MINT/APPLE-KIWI/STRRSBR - 0.5L</t>
+  </si>
+  <si>
+    <t>COMBO: DRINK</t>
+  </si>
+  <si>
+    <t>COCA-COLA - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>COCA-COLA ZERO - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>FUZE STRAWBERRY-RASPBERRY/BERRY HIBISCUS - 0.5L</t>
+  </si>
+  <si>
+    <t>TEA SHELF: SHELF SHARE</t>
+  </si>
+  <si>
+    <t>IMPULSE ACTIVATION: FACINGS</t>
+  </si>
+  <si>
+    <t>COKE AND MEAL</t>
+  </si>
+  <si>
+    <t>COKE AND MEAL: IMAGE</t>
+  </si>
+  <si>
+    <t>COKE AND MEAL: FOOD</t>
+  </si>
+  <si>
+    <t>WATER AND COFEE</t>
+  </si>
+  <si>
+    <t>WATER AND COFEE: IMAGE</t>
+  </si>
+  <si>
+    <t>WATER AND COFEE: COFFEE</t>
+  </si>
+  <si>
+    <t>DISPLAY BURN PARASITE</t>
+  </si>
+  <si>
+    <t>COLD SHELF</t>
+  </si>
+  <si>
+    <t>CHILLED SHELF SHARE SSD</t>
+  </si>
+  <si>
+    <t>CHILLED SHELF SHARE WATER</t>
+  </si>
+  <si>
+    <t>CHILLED SHELF SHARE ENERGY</t>
+  </si>
+  <si>
+    <t>SPRITE - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>FANTA ORANGE - 0.9L/1L</t>
+  </si>
+  <si>
+    <t>PULPY - MANGO PINEAPPLE/WATERMEL ALOE- 0.45L</t>
+  </si>
+  <si>
+    <t>IMPULSE ACTIVATIONS</t>
+  </si>
+  <si>
+    <t>COMBO1</t>
+  </si>
+  <si>
+    <t>COMBO2: DRINK</t>
+  </si>
+  <si>
+    <t>COMBO3</t>
+  </si>
+  <si>
+    <t>COMBO3: DRINK</t>
+  </si>
+  <si>
+    <t>COMBO3: FOOD</t>
+  </si>
+  <si>
+    <t>ASSORTMENT REMINDER</t>
+  </si>
+  <si>
+    <t>SCHWEPPES ANY OTHER - 0.25L</t>
+  </si>
+  <si>
+    <t>BONAQUA STILL - 0.33L NRGB/BONAQUA STILL - 0.5L</t>
+  </si>
+  <si>
+    <t>BONAQUA CARB - 0.5L/SMARTWATER STILL - 0.6L</t>
+  </si>
+  <si>
     <t>SCHWEPPES APPEROL - 0.25L</t>
   </si>
   <si>
-    <t>SCHWEPPES GINGER 0.25L</t>
-  </si>
-  <si>
-    <t>SPRITE/FANTA 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>BONAQUA STILL - 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>BONAQUA CARB - 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>RICH - APPLE - 0.2L</t>
-  </si>
-  <si>
-    <t>RICH - ORANGE/CHERRY - 0.2L</t>
-  </si>
-  <si>
-    <t>BURN ORIGINAL - 0.25L</t>
-  </si>
-  <si>
-    <t>COOLER IS VISIBLE</t>
-  </si>
-  <si>
-    <t>MENU ACTIVATION</t>
-  </si>
-  <si>
-    <t>IMPULSE DISPLAY</t>
-  </si>
-  <si>
-    <t>TABLE ACTIVATION</t>
-  </si>
-  <si>
-    <t>TABLE: IMAGES</t>
-  </si>
-  <si>
-    <t>COCA-COLA ORANGE - 0.5L</t>
-  </si>
-  <si>
-    <t>FUZE RASPBERRY-MINT/APPLE-KIWI - 0.5L</t>
-  </si>
-  <si>
-    <t>DOBRIY - APPLE - 0.33L/RICH - APPLE - 0.3L</t>
-  </si>
-  <si>
-    <t>DOBRIY - MULTIFRUIT - 0.33L/RICH - ORANGE - 0.3L</t>
-  </si>
-  <si>
-    <t>DOBRIY - PEACH-APPLE - 0.33L/RICH MANGO ORANGE - 0.3L</t>
-  </si>
-  <si>
-    <t>ACTIVATION BUFET LINE</t>
-  </si>
-  <si>
-    <t>COMBO</t>
-  </si>
-  <si>
-    <t>COKE&amp;FOOD</t>
-  </si>
-  <si>
-    <t>COKE&amp;FOOD: COCA-COLA</t>
-  </si>
-  <si>
-    <t>COKE&amp;FOOD: FOOD</t>
-  </si>
-  <si>
-    <t>JUICE&amp;MEAL</t>
-  </si>
-  <si>
-    <t>JUICE&amp;MEAL: JUICE</t>
-  </si>
-  <si>
-    <t>JUICE&amp;MEAL: FOOD</t>
-  </si>
-  <si>
-    <t>FANTA MANGUAVA/PEAR/SPRITE MOJITO - 0.5L</t>
-  </si>
-  <si>
-    <t>BONAQUA STILL - 0.5L/SMARTWATER - 0.6L</t>
-  </si>
-  <si>
-    <t>COMBO: COCA-COLA</t>
-  </si>
-  <si>
-    <t>COMBO: FOOD</t>
-  </si>
-  <si>
-    <t>COMBO2</t>
-  </si>
-  <si>
-    <t>COMBO2: COCA-COLA</t>
-  </si>
-  <si>
-    <t>COMBO2: FOOD</t>
-  </si>
-  <si>
-    <t>COMBO: OTHER</t>
-  </si>
-  <si>
-    <t>JUICE AND MEAL: IMAGE</t>
-  </si>
-  <si>
-    <t>JUICE AND MEAL: FOOD</t>
-  </si>
-  <si>
-    <t>COCA-COLA VANILLA - 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>SPRITE - 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>FANTA ORANGE - 0.33L NRGB</t>
-  </si>
-  <si>
-    <t>RICH - ORANGE - 0.2L</t>
-  </si>
-  <si>
-    <t>RICH - CHERRY - 0.2L</t>
-  </si>
-  <si>
-    <t>COMBO: IMAGE</t>
-  </si>
-  <si>
-    <t>COMBO: BESTSELLER</t>
-  </si>
-  <si>
-    <t>SCHWEPPES BITTER LEMON/TONIC - 0.25L</t>
-  </si>
-  <si>
-    <t>SCHWEPPES APPEROL/GINGER - 0.25L</t>
-  </si>
-  <si>
-    <t>BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB</t>
-  </si>
-  <si>
-    <t>MENU ACTIVATION: IMAGE/INSERT</t>
-  </si>
-  <si>
-    <t>MENU: COMBO</t>
-  </si>
-  <si>
-    <t>MENU COMBO: BESTSELLER</t>
-  </si>
-  <si>
-    <t>COMBO BESTSELLER: IMAGE</t>
-  </si>
-  <si>
-    <t>COMBO BESTSELLER: BESTSELLER</t>
-  </si>
-  <si>
-    <t>MENU COMBO: MIXABILITY/MOCKTAILS</t>
-  </si>
-  <si>
-    <t>COMBO MIXABILITY: IMAGE</t>
-  </si>
-  <si>
-    <t>COMBO MIXABILITY: MIXABILITY</t>
-  </si>
-  <si>
-    <t>FANTA MANGUAVA/SHOKATA/SPRITE MOJITO - 0.5L</t>
-  </si>
-  <si>
-    <t>BURN APPLE KIWI/LEMON ICE - 0.5L</t>
-  </si>
-  <si>
-    <t>FUZE RSBR-MINT/APPLE-KIWI/STRRSBR - 0.5L</t>
-  </si>
-  <si>
-    <t>COMBO: DRINK</t>
-  </si>
-  <si>
-    <t>COCA-COLA - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>COCA-COLA ZERO - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>FUZE STRAWBERRY-RASPBERRY/BERRY HIBISCUS - 0.5L</t>
-  </si>
-  <si>
-    <t>TEA SHELF: SHELF SHARE</t>
-  </si>
-  <si>
-    <t>IMPULSE ACTIVATION: FACINGS</t>
-  </si>
-  <si>
-    <t>COKE AND MEAL</t>
-  </si>
-  <si>
-    <t>COKE AND MEAL: IMAGE</t>
-  </si>
-  <si>
-    <t>COKE AND MEAL: FOOD</t>
-  </si>
-  <si>
-    <t>WATER AND COFEE</t>
-  </si>
-  <si>
-    <t>WATER AND COFEE: IMAGE</t>
-  </si>
-  <si>
-    <t>WATER AND COFEE: COFFEE</t>
-  </si>
-  <si>
-    <t>DISPLAY BURN PARASITE</t>
-  </si>
-  <si>
-    <t>COLD SHELF</t>
-  </si>
-  <si>
-    <t>CHILLED SHELF SHARE SSD</t>
-  </si>
-  <si>
-    <t>CHILLED SHELF SHARE WATER</t>
-  </si>
-  <si>
-    <t>CHILLED SHELF SHARE ENERGY</t>
-  </si>
-  <si>
-    <t>SPRITE - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>FANTA ORANGE - 0.9L/1L</t>
-  </si>
-  <si>
-    <t>PULPY - MANGO PINEAPPLE/WATERMEL ALOE- 0.45L</t>
-  </si>
-  <si>
-    <t>IMPULSE ACTIVATIONS</t>
-  </si>
-  <si>
-    <t>COMBO1</t>
-  </si>
-  <si>
-    <t>COMBO2: DRINK</t>
-  </si>
-  <si>
-    <t>COMBO3</t>
-  </si>
-  <si>
-    <t>COMBO3: DRINK</t>
-  </si>
-  <si>
-    <t>COMBO3: FOOD</t>
-  </si>
-  <si>
-    <t>ASSORTMENT REMINDER</t>
-  </si>
-  <si>
-    <t>SCHWEPPES ANY OTHER - 0.25L</t>
-  </si>
-  <si>
-    <t>BONAQUA STILL - 0.33L NRGB/BONAQUA STILL - 0.5L</t>
-  </si>
-  <si>
-    <t>BONAQUA CARB - 0.5L/SMARTWATER STILL - 0.6L</t>
-  </si>
-  <si>
     <t>COCA-COLA ZERO CHERRY - 0.5L</t>
   </si>
   <si>
@@ -2659,6 +2662,9 @@
     <t>Паразит: SSD/Добрый в сладких снеках</t>
   </si>
   <si>
+    <t>SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л</t>
+  </si>
+  <si>
     <t>Чай Дисплей</t>
   </si>
   <si>
@@ -2683,267 +2689,261 @@
     <t>Швеппс Тоник - 0.25л</t>
   </si>
   <si>
+    <t>Швеппс Имбирь - 0.25л</t>
+  </si>
+  <si>
+    <t>Спрайт/Фанта 0.33л стекло</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Рич - Яблоко - 0.2л</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин/Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t>Берн Оригинальный - 0.25л</t>
+  </si>
+  <si>
+    <t>ХО виден</t>
+  </si>
+  <si>
+    <t>Активация Меню</t>
+  </si>
+  <si>
+    <t>Импульс: Дисплей</t>
+  </si>
+  <si>
+    <t>Активация Стола</t>
+  </si>
+  <si>
+    <t>Активация Стола: Имиджи</t>
+  </si>
+  <si>
+    <t>Кока-Кола Оранж - 0.5л</t>
+  </si>
+  <si>
+    <t>Фьюз Мята-Малина/Яблоко-киви - 0.5л</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко - 0.33л/Рич - Яблоко - 0.3л</t>
+  </si>
+  <si>
+    <t>Добрый - Мультифрут - 0.33л/Рич - Апельсин - 0.3л</t>
+  </si>
+  <si>
+    <t>Добрый - Яблоко-Персик - 0.33л/Рич - Манго-Апельсин - 0.3л</t>
+  </si>
+  <si>
+    <t>Активация Линии Раздачи</t>
+  </si>
+  <si>
+    <t>Активация Комбо</t>
+  </si>
+  <si>
+    <t>Активация Кола и еда</t>
+  </si>
+  <si>
+    <t>Активация Кола и еда: Кола имидж</t>
+  </si>
+  <si>
+    <t>Активация Кола и еда: Еда</t>
+  </si>
+  <si>
+    <t>Активация Сок и еда</t>
+  </si>
+  <si>
+    <t>Активация Сок и еда: Сок имидж</t>
+  </si>
+  <si>
+    <t>Активация Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Фанта Мангуава/Груша/Спрайт Мохито - 0.5л</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.5л/СмартВотер - 0.6л</t>
+  </si>
+  <si>
+    <t>Комбо : Кока-Кола</t>
+  </si>
+  <si>
+    <t>Комбо : Еда</t>
+  </si>
+  <si>
+    <t>Комбо2</t>
+  </si>
+  <si>
+    <t>Комбо2: Кока-Кола</t>
+  </si>
+  <si>
+    <t>Комбо2: Еда</t>
+  </si>
+  <si>
+    <t>Другие Комбо</t>
+  </si>
+  <si>
+    <t>Сок и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Сок и еда: Еда</t>
+  </si>
+  <si>
+    <t>Швеппс Любой - 0.25л</t>
+  </si>
+  <si>
+    <t>Кока-Кола Ванила - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.33л стекло</t>
+  </si>
+  <si>
+    <t>Рич - Апельсин - 0.2л</t>
+  </si>
+  <si>
+    <t>Рич - Вишня - 0.2л</t>
+  </si>
+  <si>
+    <t>Комбо: Image</t>
+  </si>
+  <si>
+    <t>Комбо: Bestseller</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.33л стекло/Негаз 0.75л стекло</t>
+  </si>
+  <si>
+    <t>Активация Меню: Имиджи/Вкладка</t>
+  </si>
+  <si>
+    <t>Активация Меню: Комбо</t>
+  </si>
+  <si>
+    <t>Активация Меню: Комбо с бестселлером</t>
+  </si>
+  <si>
+    <t>Комбо c бестселлером: Image</t>
+  </si>
+  <si>
+    <t>Комбо с бестселлером: Bestseller</t>
+  </si>
+  <si>
+    <t>Активация Меню: Миксабилити/Коктейли</t>
+  </si>
+  <si>
+    <t>Комбо Миксабилити: Image</t>
+  </si>
+  <si>
+    <t>Комбо Миксабилити: Mixability</t>
+  </si>
+  <si>
+    <t>Фанта Мангуава/Шоката/Спрайт Мохито - 0.5л</t>
+  </si>
+  <si>
+    <t>Берн Яблоко-Киви/Лимонный Лед - 0.5л</t>
+  </si>
+  <si>
+    <t>Фьюз Малина-Мята/Яблоко-Киви/Клубн-Мал - 0.5л</t>
+  </si>
+  <si>
+    <t>Комбо: Напиток</t>
+  </si>
+  <si>
+    <t>Кока-Кола - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Кока-Кола Зеро - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Фьюз Клубника-Малина/Ягоды-Гибискус - 0.5л</t>
+  </si>
+  <si>
+    <t>Чай полка: Доля полки</t>
+  </si>
+  <si>
+    <t>Активация Импульсной зоны: фейсинги</t>
+  </si>
+  <si>
+    <t>Кола и еда</t>
+  </si>
+  <si>
+    <t>Кола и еда: Имидж</t>
+  </si>
+  <si>
+    <t>Кола и еда: Еда</t>
+  </si>
+  <si>
+    <t>Вода и кофе</t>
+  </si>
+  <si>
+    <t>Вода и кофе: Имидж</t>
+  </si>
+  <si>
+    <t>Вода и кофе: Кофе</t>
+  </si>
+  <si>
+    <t>Дисплей Берн</t>
+  </si>
+  <si>
+    <t>Холодная Полка</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки SSD</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Вода</t>
+  </si>
+  <si>
+    <t>Охлажденная Доля Полки Энергетики</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Фанта Апельсин - 0.9л/1л</t>
+  </si>
+  <si>
+    <t>Палпи - Манго Ананас/Арбуз Алоэ - 0.45л</t>
+  </si>
+  <si>
+    <t>Аткивации Импульсной зоны</t>
+  </si>
+  <si>
+    <t>Комбо1</t>
+  </si>
+  <si>
+    <t>Комбо2: Напиток</t>
+  </si>
+  <si>
+    <t>Комбо3</t>
+  </si>
+  <si>
+    <t>Комбо3: Напиток</t>
+  </si>
+  <si>
+    <t>Комбо3: Еда</t>
+  </si>
+  <si>
+    <t>Ассортимент Ремайндер</t>
+  </si>
+  <si>
+    <t>БонАква Негаз - 0.33л стекло/БонАква Негаз - 0.5л</t>
+  </si>
+  <si>
+    <t>БонАква Газ - 0.5л/СмартВотер - 0.6л</t>
+  </si>
+  <si>
     <t>Швеппс Аппероль - 0.25л</t>
   </si>
   <si>
-    <t>Швеппс Имбирь - 0.25л</t>
-  </si>
-  <si>
-    <t>Спрайт/Фанта 0.33л стекло</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Рич - Яблоко - 0.2л</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин/Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Берн Оригинальный - 0.25л</t>
-  </si>
-  <si>
-    <t>ХО виден</t>
-  </si>
-  <si>
-    <t>Активация Меню</t>
-  </si>
-  <si>
-    <t>Импульс: Дисплей</t>
-  </si>
-  <si>
-    <t>Активация Стола</t>
-  </si>
-  <si>
-    <t>Активация Стола: Имиджи</t>
-  </si>
-  <si>
-    <t>Кока-Кола Оранж - 0.5л</t>
-  </si>
-  <si>
-    <t>Фьюз Мята-Малина/Яблоко-киви - 0.5л</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко - 0.33л/Рич - Яблоко - 0.3л</t>
-  </si>
-  <si>
-    <t>Добрый - Мультифрут - 0.33л/Рич - Апельсин - 0.3л</t>
-  </si>
-  <si>
-    <t>Добрый - Яблоко-Персик - 0.33л/Рич - Манго-Апельсин - 0.3л</t>
-  </si>
-  <si>
-    <t>Активация Линии Раздачи</t>
-  </si>
-  <si>
-    <t>Активация Комбо</t>
-  </si>
-  <si>
-    <t>Активация Кола и еда</t>
-  </si>
-  <si>
-    <t>Активация Кола и еда: Кола имидж</t>
-  </si>
-  <si>
-    <t>Активация Кола и еда: Еда</t>
-  </si>
-  <si>
-    <t>Активация Сок и еда</t>
-  </si>
-  <si>
-    <t>Активация Сок и еда: Сок имидж</t>
-  </si>
-  <si>
-    <t>Активация Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t>Фанта Мангуава/Груша/Спрайт Мохито - 0.5л</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.5л/СмартВотер - 0.6л</t>
-  </si>
-  <si>
-    <t>Комбо : Кока-Кола</t>
-  </si>
-  <si>
-    <t>Комбо : Еда</t>
-  </si>
-  <si>
-    <t>Комбо2</t>
-  </si>
-  <si>
-    <t>Комбо2: Кока-Кола</t>
-  </si>
-  <si>
-    <t>Комбо2: Еда</t>
-  </si>
-  <si>
-    <t>Другие Комбо</t>
-  </si>
-  <si>
-    <t>Сок и еда: Имидж</t>
-  </si>
-  <si>
-    <t>Сок и еда: Еда</t>
-  </si>
-  <si>
-    <t>Кока-Кола Ванила - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.33л стекло</t>
-  </si>
-  <si>
-    <t>Рич - Апельсин - 0.2л</t>
-  </si>
-  <si>
-    <t>Рич - Вишня - 0.2л</t>
-  </si>
-  <si>
-    <t>Комбо: Image</t>
-  </si>
-  <si>
-    <t>Комбо: Bestseller</t>
-  </si>
-  <si>
-    <t>Швеппс Биттер Лемон/Тоник - 0.25л</t>
-  </si>
-  <si>
-    <t>Швеппс Аппероль/Имбирь - 0.25л</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.33л стекло/Негаз 0.75л стекло</t>
-  </si>
-  <si>
-    <t>Активация Меню: Имиджи/Вкладка</t>
-  </si>
-  <si>
-    <t>Активация Меню: Комбо</t>
-  </si>
-  <si>
-    <t>Активация Меню: Комбо с бестселлером</t>
-  </si>
-  <si>
-    <t>Комбо c бестселлером: Image</t>
-  </si>
-  <si>
-    <t>Комбо с бестселлером: Bestseller</t>
-  </si>
-  <si>
-    <t>Активация Меню: Миксабилити/Коктейли</t>
-  </si>
-  <si>
-    <t>Комбо Миксабилити: Image</t>
-  </si>
-  <si>
-    <t>Комбо Миксабилити: Mixability</t>
-  </si>
-  <si>
-    <t>Фанта Мангуава/Шоката/Спрайт Мохито - 0.5л</t>
-  </si>
-  <si>
-    <t>Берн Яблоко-Киви/Лимонный Лед - 0.5л</t>
-  </si>
-  <si>
-    <t>Фьюз Малина-Мята/Яблоко-Киви/Клубн-Мал - 0.5л</t>
-  </si>
-  <si>
-    <t>Комбо: Напиток</t>
-  </si>
-  <si>
-    <t>Кока-Кола - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Кока-Кола Зеро - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Фьюз Клубника-Малина/Ягоды-Гибискус - 0.5л</t>
-  </si>
-  <si>
-    <t>Чай полка: Доля полки</t>
-  </si>
-  <si>
-    <t>Активация Импульсной зоны: фейсинги</t>
-  </si>
-  <si>
-    <t>Кола и еда</t>
-  </si>
-  <si>
-    <t>Кола и еда: Имидж</t>
-  </si>
-  <si>
-    <t>Кола и еда: Еда</t>
-  </si>
-  <si>
-    <t>Вода и кофе</t>
-  </si>
-  <si>
-    <t>Вода и кофе: Имидж</t>
-  </si>
-  <si>
-    <t>Вода и кофе: Кофе</t>
-  </si>
-  <si>
-    <t>Дисплей Берн</t>
-  </si>
-  <si>
-    <t>Холодная Полка</t>
-  </si>
-  <si>
-    <t>Охлажденная Доля Полки SSD</t>
-  </si>
-  <si>
-    <t>Охлажденная Доля Полки Вода</t>
-  </si>
-  <si>
-    <t>Охлажденная Доля Полки Энергетики</t>
-  </si>
-  <si>
-    <t>Спрайт - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Фанта Апельсин - 0.9л/1л</t>
-  </si>
-  <si>
-    <t>Палпи - Манго Ананас/Арбуз Алоэ - 0.45л</t>
-  </si>
-  <si>
-    <t>Аткивации Импульсной зоны</t>
-  </si>
-  <si>
-    <t>Комбо1</t>
-  </si>
-  <si>
-    <t>Комбо2: Напиток</t>
-  </si>
-  <si>
-    <t>Комбо3</t>
-  </si>
-  <si>
-    <t>Комбо3: Напиток</t>
-  </si>
-  <si>
-    <t>Комбо3: Еда</t>
-  </si>
-  <si>
-    <t>Ассортимент Ремайндер</t>
-  </si>
-  <si>
-    <t>Швеппс Любой - 0.25л</t>
-  </si>
-  <si>
-    <t>БонАква Негаз - 0.33л стекло/БонАква Негаз - 0.5л</t>
-  </si>
-  <si>
-    <t>БонАква Газ - 0.5л/СмартВотер - 0.6л</t>
-  </si>
-  <si>
     <t>Кока-Кола Зеро Вишня - 0.5л</t>
   </si>
   <si>
@@ -4132,6 +4132,9 @@
     <t>('PARASITES: SSD/JUICE IN SWEET SNACKS', 'Паразит: SSD/Добрый в сладких снеках', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
+    <t>('SSD DISPLAY 2D: LEAD SKU COCA-COLA - 1.5L', 'SSD Дисплей 2-й: Основной СКЮ Кока-Кола - 1.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
     <t>('TEA DISPLAY', 'Чай Дисплей', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
@@ -4165,265 +4168,265 @@
     <t>('SCHWEPPES TONIC - 0.25L', 'Швеппс Тоник - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
+    <t>('SCHWEPPES GINGER 0.25L', 'Швеппс Имбирь - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SPRITE/FANTA 0.33L NRGB', 'Спрайт/Фанта 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA STILL - 0.33L NRGB', 'БонАква Негаз - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA CARB - 0.33L NRGB', 'БонАква Газ - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('RICH - APPLE - 0.2L', 'Рич - Яблоко - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('RICH - ORANGE/CHERRY - 0.2L', 'Рич - Апельсин/Вишня - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BURN ORIGINAL - 0.25L', 'Берн Оригинальный - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COOLER IS VISIBLE', 'ХО виден', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('MENU ACTIVATION', 'Активация Меню', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('IMPULSE DISPLAY', 'Импульс: Дисплей', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('TABLE ACTIVATION', 'Активация Стола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('TABLE: IMAGES', 'Активация Стола: Имиджи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COCA-COLA ORANGE - 0.5L', 'Кока-Кола Оранж - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FUZE RASPBERRY-MINT/APPLE-KIWI - 0.5L', 'Фьюз Мята-Малина/Яблоко-киви - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('DOBRIY - APPLE - 0.33L/RICH - APPLE - 0.3L', 'Добрый - Яблоко - 0.33л/Рич - Яблоко - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('DOBRIY - MULTIFRUIT - 0.33L/RICH - ORANGE - 0.3L', 'Добрый - Мультифрут - 0.33л/Рич - Апельсин - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('DOBRIY - PEACH-APPLE - 0.33L/RICH MANGO ORANGE - 0.3L', 'Добрый - Яблоко-Персик - 0.33л/Рич - Манго-Апельсин - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('ACTIVATION BUFET LINE', 'Активация Линии Раздачи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO', 'Активация Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE&amp;FOOD', 'Активация Кола и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE&amp;FOOD: COCA-COLA', 'Активация Кола и еда: Кола имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE&amp;FOOD: FOOD', 'Активация Кола и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('JUICE&amp;MEAL', 'Активация Сок и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('JUICE&amp;MEAL: JUICE', 'Активация Сок и еда: Сок имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('JUICE&amp;MEAL: FOOD', 'Активация Сок и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FANTA MANGUAVA/PEAR/SPRITE MOJITO - 0.5L', 'Фанта Мангуава/Груша/Спрайт Мохито - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA STILL - 0.5L/SMARTWATER - 0.6L', 'БонАква Негаз - 0.5л/СмартВотер - 0.6л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: COCA-COLA', 'Комбо : Кока-Кола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: FOOD', 'Комбо : Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO2', 'Комбо2', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO2: COCA-COLA', 'Комбо2: Кока-Кола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO2: FOOD', 'Комбо2: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: OTHER', 'Другие Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('JUICE AND MEAL: IMAGE', 'Сок и еда: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('JUICE AND MEAL: FOOD', 'Сок и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SCHWEPPES ANY - 0.25L', 'Швеппс Любой - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COCA-COLA VANILLA - 0.33L NRGB', 'Кока-Кола Ванила - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SPRITE - 0.33L NRGB', 'Спрайт - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FANTA ORANGE - 0.33L NRGB', 'Фанта Апельсин - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('RICH - ORANGE - 0.2L', 'Рич - Апельсин - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('RICH - CHERRY - 0.2L', 'Рич - Вишня - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: IMAGE', 'Комбо: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: BESTSELLER', 'Комбо: Bestseller', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SCHWEPPES GINGER - 0.25L', 'Швеппс Имбирь - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB', 'БонАква Газ - 0.33л стекло/Негаз 0.75л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('MENU ACTIVATION: IMAGE/INSERT', 'Активация Меню: Имиджи/Вкладка', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('MENU: COMBO', 'Активация Меню: Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('MENU COMBO: BESTSELLER', 'Активация Меню: Комбо с бестселлером', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO BESTSELLER: IMAGE', 'Комбо c бестселлером: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO BESTSELLER: BESTSELLER', 'Комбо с бестселлером: Bestseller', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('MENU COMBO: MIXABILITY/MOCKTAILS', 'Активация Меню: Миксабилити/Коктейли', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO MIXABILITY: IMAGE', 'Комбо Миксабилити: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO MIXABILITY: MIXABILITY', 'Комбо Миксабилити: Mixability', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FANTA MANGUAVA/SHOKATA/SPRITE MOJITO - 0.5L', 'Фанта Мангуава/Шоката/Спрайт Мохито - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BURN APPLE KIWI/LEMON ICE - 0.5L', 'Берн Яблоко-Киви/Лимонный Лед - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FUZE RSBR-MINT/APPLE-KIWI/STRRSBR - 0.5L', 'Фьюз Малина-Мята/Яблоко-Киви/Клубн-Мал - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO: DRINK', 'Комбо: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COCA-COLA - 0.9L/1L', 'Кока-Кола - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COCA-COLA ZERO - 0.9L/1L', 'Кока-Кола Зеро - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FUZE STRAWBERRY-RASPBERRY/BERRY HIBISCUS - 0.5L', 'Фьюз Клубника-Малина/Ягоды-Гибискус - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('TEA SHELF: SHELF SHARE', 'Чай полка: Доля полки', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('IMPULSE ACTIVATION: FACINGS', 'Активация Импульсной зоны: фейсинги', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE AND MEAL', 'Кола и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE AND MEAL: IMAGE', 'Кола и еда: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COKE AND MEAL: FOOD', 'Кола и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('WATER AND COFEE', 'Вода и кофе', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('WATER AND COFEE: IMAGE', 'Вода и кофе: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('WATER AND COFEE: COFFEE', 'Вода и кофе: Кофе', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('DISPLAY BURN PARASITE', 'Дисплей Берн', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COLD SHELF', 'Холодная Полка', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('CHILLED SHELF SHARE SSD', 'Охлажденная Доля Полки SSD', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('CHILLED SHELF SHARE WATER', 'Охлажденная Доля Полки Вода', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('CHILLED SHELF SHARE ENERGY', 'Охлажденная Доля Полки Энергетики', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SPRITE - 0.9L/1L', 'Спрайт - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('FANTA ORANGE - 0.9L/1L', 'Фанта Апельсин - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('PULPY - MANGO PINEAPPLE/WATERMEL ALOE- 0.45L', 'Палпи - Манго Ананас/Арбуз Алоэ - 0.45л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('IMPULSE ACTIVATIONS', 'Аткивации Импульсной зоны', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO1', 'Комбо1', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO2: DRINK', 'Комбо2: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO3', 'Комбо3', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO3: DRINK', 'Комбо3: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('COMBO3: FOOD', 'Комбо3: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('ASSORTMENT REMINDER', 'Ассортимент Ремайндер', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('SCHWEPPES ANY OTHER - 0.25L', 'Швеппс Любой - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA STILL - 0.33L NRGB/BONAQUA STILL - 0.5L', 'БонАква Негаз - 0.33л стекло/БонАква Негаз - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
+    <t>('BONAQUA CARB - 0.5L/SMARTWATER STILL - 0.6L', 'БонАква Газ - 0.5л/СмартВотер - 0.6л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
+  </si>
+  <si>
     <t>('SCHWEPPES APPEROL - 0.25L', 'Швеппс Аппероль - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SCHWEPPES GINGER 0.25L', 'Швеппс Имбирь - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SPRITE/FANTA 0.33L NRGB', 'Спрайт/Фанта 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA STILL - 0.33L NRGB', 'БонАква Негаз - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA CARB - 0.33L NRGB', 'БонАква Газ - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('RICH - APPLE - 0.2L', 'Рич - Яблоко - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('RICH - ORANGE/CHERRY - 0.2L', 'Рич - Апельсин/Вишня - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BURN ORIGINAL - 0.25L', 'Берн Оригинальный - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COOLER IS VISIBLE', 'ХО виден', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('MENU ACTIVATION', 'Активация Меню', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('IMPULSE DISPLAY', 'Импульс: Дисплей', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('TABLE ACTIVATION', 'Активация Стола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('TABLE: IMAGES', 'Активация Стола: Имиджи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COCA-COLA ORANGE - 0.5L', 'Кока-Кола Оранж - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FUZE RASPBERRY-MINT/APPLE-KIWI - 0.5L', 'Фьюз Мята-Малина/Яблоко-киви - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('DOBRIY - APPLE - 0.33L/RICH - APPLE - 0.3L', 'Добрый - Яблоко - 0.33л/Рич - Яблоко - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('DOBRIY - MULTIFRUIT - 0.33L/RICH - ORANGE - 0.3L', 'Добрый - Мультифрут - 0.33л/Рич - Апельсин - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('DOBRIY - PEACH-APPLE - 0.33L/RICH MANGO ORANGE - 0.3L', 'Добрый - Яблоко-Персик - 0.33л/Рич - Манго-Апельсин - 0.3л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('ACTIVATION BUFET LINE', 'Активация Линии Раздачи', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO', 'Активация Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE&amp;FOOD', 'Активация Кола и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE&amp;FOOD: COCA-COLA', 'Активация Кола и еда: Кола имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE&amp;FOOD: FOOD', 'Активация Кола и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('JUICE&amp;MEAL', 'Активация Сок и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('JUICE&amp;MEAL: JUICE', 'Активация Сок и еда: Сок имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('JUICE&amp;MEAL: FOOD', 'Активация Сок и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FANTA MANGUAVA/PEAR/SPRITE MOJITO - 0.5L', 'Фанта Мангуава/Груша/Спрайт Мохито - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA STILL - 0.5L/SMARTWATER - 0.6L', 'БонАква Негаз - 0.5л/СмартВотер - 0.6л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: COCA-COLA', 'Комбо : Кока-Кола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: FOOD', 'Комбо : Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO2', 'Комбо2', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO2: COCA-COLA', 'Комбо2: Кока-Кола', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO2: FOOD', 'Комбо2: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: OTHER', 'Другие Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('JUICE AND MEAL: IMAGE', 'Сок и еда: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('JUICE AND MEAL: FOOD', 'Сок и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COCA-COLA VANILLA - 0.33L NRGB', 'Кока-Кола Ванила - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SPRITE - 0.33L NRGB', 'Спрайт - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FANTA ORANGE - 0.33L NRGB', 'Фанта Апельсин - 0.33л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('RICH - ORANGE - 0.2L', 'Рич - Апельсин - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('RICH - CHERRY - 0.2L', 'Рич - Вишня - 0.2л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: IMAGE', 'Комбо: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: BESTSELLER', 'Комбо: Bestseller', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SCHWEPPES BITTER LEMON/TONIC - 0.25L', 'Швеппс Биттер Лемон/Тоник - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SCHWEPPES APPEROL/GINGER - 0.25L', 'Швеппс Аппероль/Имбирь - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA CARB - 0.33L NRGB/STILL - 0.75L NRGB', 'БонАква Газ - 0.33л стекло/Негаз 0.75л стекло', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('MENU ACTIVATION: IMAGE/INSERT', 'Активация Меню: Имиджи/Вкладка', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('MENU: COMBO', 'Активация Меню: Комбо', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('MENU COMBO: BESTSELLER', 'Активация Меню: Комбо с бестселлером', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO BESTSELLER: IMAGE', 'Комбо c бестселлером: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO BESTSELLER: BESTSELLER', 'Комбо с бестселлером: Bestseller', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('MENU COMBO: MIXABILITY/MOCKTAILS', 'Активация Меню: Миксабилити/Коктейли', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO MIXABILITY: IMAGE', 'Комбо Миксабилити: Image', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO MIXABILITY: MIXABILITY', 'Комбо Миксабилити: Mixability', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FANTA MANGUAVA/SHOKATA/SPRITE MOJITO - 0.5L', 'Фанта Мангуава/Шоката/Спрайт Мохито - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BURN APPLE KIWI/LEMON ICE - 0.5L', 'Берн Яблоко-Киви/Лимонный Лед - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FUZE RSBR-MINT/APPLE-KIWI/STRRSBR - 0.5L', 'Фьюз Малина-Мята/Яблоко-Киви/Клубн-Мал - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO: DRINK', 'Комбо: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COCA-COLA - 0.9L/1L', 'Кока-Кола - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COCA-COLA ZERO - 0.9L/1L', 'Кока-Кола Зеро - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FUZE STRAWBERRY-RASPBERRY/BERRY HIBISCUS - 0.5L', 'Фьюз Клубника-Малина/Ягоды-Гибискус - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('TEA SHELF: SHELF SHARE', 'Чай полка: Доля полки', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('IMPULSE ACTIVATION: FACINGS', 'Активация Импульсной зоны: фейсинги', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE AND MEAL', 'Кола и еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE AND MEAL: IMAGE', 'Кола и еда: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COKE AND MEAL: FOOD', 'Кола и еда: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('WATER AND COFEE', 'Вода и кофе', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('WATER AND COFEE: IMAGE', 'Вода и кофе: Имидж', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('WATER AND COFEE: COFFEE', 'Вода и кофе: Кофе', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('DISPLAY BURN PARASITE', 'Дисплей Берн', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COLD SHELF', 'Холодная Полка', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CHILLED SHELF SHARE SSD', 'Охлажденная Доля Полки SSD', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CHILLED SHELF SHARE WATER', 'Охлажденная Доля Полки Вода', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('CHILLED SHELF SHARE ENERGY', 'Охлажденная Доля Полки Энергетики', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SPRITE - 0.9L/1L', 'Спрайт - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('FANTA ORANGE - 0.9L/1L', 'Фанта Апельсин - 0.9л/1л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('PULPY - MANGO PINEAPPLE/WATERMEL ALOE- 0.45L', 'Палпи - Манго Ананас/Арбуз Алоэ - 0.45л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('IMPULSE ACTIVATIONS', 'Аткивации Импульсной зоны', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO1', 'Комбо1', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO2: DRINK', 'Комбо2: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO3', 'Комбо3', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO3: DRINK', 'Комбо3: Напиток', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('COMBO3: FOOD', 'Комбо3: Еда', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('ASSORTMENT REMINDER', 'Ассортимент Ремайндер', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('SCHWEPPES ANY OTHER - 0.25L', 'Швеппс Любой - 0.25л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA STILL - 0.33L NRGB/BONAQUA STILL - 0.5L', 'БонАква Негаз - 0.33л стекло/БонАква Негаз - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
-  </si>
-  <si>
-    <t>('BONAQUA CARB - 0.5L/SMARTWATER STILL - 0.6L', 'БонАква Газ - 0.5л/СмартВотер - 0.6л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
   </si>
   <si>
     <t>('COCA-COLA ZERO CHERRY - 0.5L', 'Кока-Кола Зеро Вишня - 0.5л', 20, 1, 999, NULL, NULL, NULL, NULL, NULL, NULL, 'Entity', NULL, 3, 0, 0, 0, 0, 0, NULL, 0),</t>
@@ -4793,7 +4796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4818,7 +4821,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D2" t="s">
         <v>980</v>
@@ -4829,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D3" t="s">
         <v>981</v>
@@ -4840,7 +4843,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D4" t="s">
         <v>982</v>
@@ -4851,7 +4854,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
         <v>983</v>
@@ -4862,7 +4865,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D6" t="s">
         <v>984</v>
@@ -4873,7 +4876,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D7" t="s">
         <v>985</v>
@@ -4884,7 +4887,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D8" t="s">
         <v>986</v>
@@ -4895,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D9" t="s">
         <v>987</v>
@@ -4906,7 +4909,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D10" t="s">
         <v>988</v>
@@ -4917,7 +4920,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D11" t="s">
         <v>989</v>
@@ -4928,7 +4931,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D12" t="s">
         <v>990</v>
@@ -4939,7 +4942,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D13" t="s">
         <v>991</v>
@@ -4950,7 +4953,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D14" t="s">
         <v>992</v>
@@ -4961,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
         <v>993</v>
@@ -4972,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D16" t="s">
         <v>994</v>
@@ -4983,7 +4986,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D17" t="s">
         <v>995</v>
@@ -4994,7 +4997,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D18" t="s">
         <v>996</v>
@@ -5005,7 +5008,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D19" t="s">
         <v>997</v>
@@ -5016,7 +5019,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
         <v>998</v>
@@ -5027,7 +5030,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
         <v>999</v>
@@ -5038,7 +5041,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
         <v>1000</v>
@@ -5049,7 +5052,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D23" t="s">
         <v>1001</v>
@@ -5060,7 +5063,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D24" t="s">
         <v>1002</v>
@@ -5071,7 +5074,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D25" t="s">
         <v>1003</v>
@@ -5082,7 +5085,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D26" t="s">
         <v>1004</v>
@@ -5093,7 +5096,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D27" t="s">
         <v>1005</v>
@@ -5104,7 +5107,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D28" t="s">
         <v>1006</v>
@@ -5115,7 +5118,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D29" t="s">
         <v>1007</v>
@@ -5126,7 +5129,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D30" t="s">
         <v>1008</v>
@@ -5137,7 +5140,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D31" t="s">
         <v>1009</v>
@@ -5148,7 +5151,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D32" t="s">
         <v>1010</v>
@@ -5159,7 +5162,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D33" t="s">
         <v>1011</v>
@@ -5170,7 +5173,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D34" t="s">
         <v>1012</v>
@@ -5181,7 +5184,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D35" t="s">
         <v>1013</v>
@@ -5192,7 +5195,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D36" t="s">
         <v>1014</v>
@@ -5203,7 +5206,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D37" t="s">
         <v>1015</v>
@@ -5214,7 +5217,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D38" t="s">
         <v>1016</v>
@@ -5225,7 +5228,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D39" t="s">
         <v>1017</v>
@@ -5236,7 +5239,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
         <v>1018</v>
@@ -5247,7 +5250,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D41" t="s">
         <v>1019</v>
@@ -5258,7 +5261,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D42" t="s">
         <v>1020</v>
@@ -5269,7 +5272,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D43" t="s">
         <v>1021</v>
@@ -5280,7 +5283,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D44" t="s">
         <v>1022</v>
@@ -5291,7 +5294,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D45" t="s">
         <v>1023</v>
@@ -5302,7 +5305,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D46" t="s">
         <v>1024</v>
@@ -5313,7 +5316,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D47" t="s">
         <v>1025</v>
@@ -5324,7 +5327,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D48" t="s">
         <v>1026</v>
@@ -5335,7 +5338,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D49" t="s">
         <v>1027</v>
@@ -5346,7 +5349,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D50" t="s">
         <v>1028</v>
@@ -5357,7 +5360,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D51" t="s">
         <v>1029</v>
@@ -5368,7 +5371,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D52" t="s">
         <v>1030</v>
@@ -5379,7 +5382,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D53" t="s">
         <v>1031</v>
@@ -5390,7 +5393,7 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D54" t="s">
         <v>1032</v>
@@ -5401,7 +5404,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D55" t="s">
         <v>1033</v>
@@ -5412,7 +5415,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D56" t="s">
         <v>1034</v>
@@ -5423,7 +5426,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D57" t="s">
         <v>1035</v>
@@ -5434,7 +5437,7 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D58" t="s">
         <v>1036</v>
@@ -5445,7 +5448,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D59" t="s">
         <v>1037</v>
@@ -5456,7 +5459,7 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D60" t="s">
         <v>1038</v>
@@ -5467,7 +5470,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D61" t="s">
         <v>1039</v>
@@ -5478,7 +5481,7 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D62" t="s">
         <v>1040</v>
@@ -5489,7 +5492,7 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D63" t="s">
         <v>1041</v>
@@ -5500,7 +5503,7 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D64" t="s">
         <v>1042</v>
@@ -5511,7 +5514,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D65" t="s">
         <v>1043</v>
@@ -5522,7 +5525,7 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D66" t="s">
         <v>1044</v>
@@ -5533,7 +5536,7 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D67" t="s">
         <v>1045</v>
@@ -5544,7 +5547,7 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D68" t="s">
         <v>1046</v>
@@ -5555,7 +5558,7 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D69" t="s">
         <v>1047</v>
@@ -5566,7 +5569,7 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D70" t="s">
         <v>1048</v>
@@ -5577,7 +5580,7 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D71" t="s">
         <v>1049</v>
@@ -5588,7 +5591,7 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D72" t="s">
         <v>1050</v>
@@ -5599,7 +5602,7 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D73" t="s">
         <v>1051</v>
@@ -5610,7 +5613,7 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D74" t="s">
         <v>1052</v>
@@ -5621,7 +5624,7 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D75" t="s">
         <v>1053</v>
@@ -5632,7 +5635,7 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D76" t="s">
         <v>1054</v>
@@ -5643,7 +5646,7 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D77" t="s">
         <v>1055</v>
@@ -5654,7 +5657,7 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D78" t="s">
         <v>1056</v>
@@ -5665,7 +5668,7 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D79" t="s">
         <v>1057</v>
@@ -5676,7 +5679,7 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D80" t="s">
         <v>1058</v>
@@ -5687,7 +5690,7 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D81" t="s">
         <v>1059</v>
@@ -5698,7 +5701,7 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D82" t="s">
         <v>1060</v>
@@ -5709,7 +5712,7 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D83" t="s">
         <v>1061</v>
@@ -5720,7 +5723,7 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D84" t="s">
         <v>1062</v>
@@ -5731,7 +5734,7 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D85" t="s">
         <v>1063</v>
@@ -5742,7 +5745,7 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D86" t="s">
         <v>1064</v>
@@ -5753,7 +5756,7 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D87" t="s">
         <v>1065</v>
@@ -5764,7 +5767,7 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D88" t="s">
         <v>1066</v>
@@ -5775,7 +5778,7 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D89" t="s">
         <v>1067</v>
@@ -5786,7 +5789,7 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D90" t="s">
         <v>1068</v>
@@ -5797,7 +5800,7 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D91" t="s">
         <v>1069</v>
@@ -5808,7 +5811,7 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D92" t="s">
         <v>1070</v>
@@ -5819,7 +5822,7 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D93" t="s">
         <v>1071</v>
@@ -5830,7 +5833,7 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D94" t="s">
         <v>1072</v>
@@ -5841,7 +5844,7 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D95" t="s">
         <v>1073</v>
@@ -5852,7 +5855,7 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D96" t="s">
         <v>1074</v>
@@ -5863,7 +5866,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D97" t="s">
         <v>1075</v>
@@ -5874,7 +5877,7 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D98" t="s">
         <v>1076</v>
@@ -5885,7 +5888,7 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D99" t="s">
         <v>1077</v>
@@ -5896,7 +5899,7 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D100" t="s">
         <v>1078</v>
@@ -5907,7 +5910,7 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D101" t="s">
         <v>1079</v>
@@ -5918,7 +5921,7 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D102" t="s">
         <v>1080</v>
@@ -5929,7 +5932,7 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D103" t="s">
         <v>1081</v>
@@ -5940,7 +5943,7 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D104" t="s">
         <v>1082</v>
@@ -5951,7 +5954,7 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D105" t="s">
         <v>1083</v>
@@ -5962,7 +5965,7 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D106" t="s">
         <v>1084</v>
@@ -5973,7 +5976,7 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D107" t="s">
         <v>1085</v>
@@ -5984,7 +5987,7 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D108" t="s">
         <v>1086</v>
@@ -5995,7 +5998,7 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D109" t="s">
         <v>1087</v>
@@ -6006,7 +6009,7 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D110" t="s">
         <v>1088</v>
@@ -6017,7 +6020,7 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D111" t="s">
         <v>1089</v>
@@ -6028,7 +6031,7 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D112" t="s">
         <v>1090</v>
@@ -6039,7 +6042,7 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D113" t="s">
         <v>1091</v>
@@ -6050,7 +6053,7 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D114" t="s">
         <v>1092</v>
@@ -6061,7 +6064,7 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D115" t="s">
         <v>1093</v>
@@ -6072,7 +6075,7 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D116" t="s">
         <v>1094</v>
@@ -6083,7 +6086,7 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D117" t="s">
         <v>1095</v>
@@ -6094,7 +6097,7 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D118" t="s">
         <v>1096</v>
@@ -6105,7 +6108,7 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D119" t="s">
         <v>1097</v>
@@ -6116,7 +6119,7 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D120" t="s">
         <v>1098</v>
@@ -6127,7 +6130,7 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D121" t="s">
         <v>1099</v>
@@ -6138,7 +6141,7 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D122" t="s">
         <v>1100</v>
@@ -6149,7 +6152,7 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D123" t="s">
         <v>1101</v>
@@ -6160,7 +6163,7 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D124" t="s">
         <v>1102</v>
@@ -6171,7 +6174,7 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D125" t="s">
         <v>1103</v>
@@ -6182,7 +6185,7 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D126" t="s">
         <v>1104</v>
@@ -6193,7 +6196,7 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D127" t="s">
         <v>1105</v>
@@ -6204,186 +6207,183 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D128" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="2:4">
       <c r="B129" t="s">
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D129" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="2:4">
       <c r="B130" t="s">
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D130" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="2:4">
       <c r="B131" t="s">
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D131" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="2:4">
       <c r="B132" t="s">
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D132" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="2:4">
       <c r="B133" t="s">
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D133" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="2:4">
       <c r="B134" t="s">
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D134" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="2:4">
       <c r="B135" t="s">
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D135" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="2:4">
       <c r="B136" t="s">
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D136" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>4</v>
-      </c>
+    <row r="137" spans="2:4">
       <c r="B137" t="s">
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D137" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="2:4">
       <c r="B138" t="s">
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D138" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="2:4">
       <c r="B139" t="s">
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D139" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="2:4">
       <c r="B140" t="s">
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D140" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="2:4">
       <c r="B141" t="s">
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D141" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="2:4">
       <c r="B142" t="s">
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D142" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="2:4">
       <c r="B143" t="s">
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D143" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="2:4">
       <c r="B144" t="s">
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D144" t="s">
         <v>1122</v>
@@ -6394,7 +6394,7 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D145" t="s">
         <v>1123</v>
@@ -6405,7 +6405,7 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D146" t="s">
         <v>1124</v>
@@ -6416,7 +6416,7 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D147" t="s">
         <v>1125</v>
@@ -6427,7 +6427,7 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D148" t="s">
         <v>1126</v>
@@ -6438,7 +6438,7 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D149" t="s">
         <v>1127</v>
@@ -6449,7 +6449,7 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D150" t="s">
         <v>1128</v>
@@ -6460,7 +6460,7 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D151" t="s">
         <v>1129</v>
@@ -6471,7 +6471,7 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D152" t="s">
         <v>1130</v>
@@ -6482,7 +6482,7 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D153" t="s">
         <v>1131</v>
@@ -6493,7 +6493,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D154" t="s">
         <v>1132</v>
@@ -6504,7 +6504,7 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D155" t="s">
         <v>1133</v>
@@ -6515,7 +6515,7 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D156" t="s">
         <v>1134</v>
@@ -6526,7 +6526,7 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D157" t="s">
         <v>1135</v>
@@ -6537,7 +6537,7 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D158" t="s">
         <v>1136</v>
@@ -6548,7 +6548,7 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D159" t="s">
         <v>1137</v>
@@ -6559,7 +6559,7 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D160" t="s">
         <v>1138</v>
@@ -6570,7 +6570,7 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D161" t="s">
         <v>1139</v>
@@ -6581,7 +6581,7 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D162" t="s">
         <v>1140</v>
@@ -6592,7 +6592,7 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D163" t="s">
         <v>1141</v>
@@ -6603,7 +6603,7 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D164" t="s">
         <v>1142</v>
@@ -6614,7 +6614,7 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D165" t="s">
         <v>1143</v>
@@ -6625,7 +6625,7 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D166" t="s">
         <v>1144</v>
@@ -6636,7 +6636,7 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D167" t="s">
         <v>1145</v>
@@ -6647,7 +6647,7 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D168" t="s">
         <v>1146</v>
@@ -6658,7 +6658,7 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D169" t="s">
         <v>1147</v>
@@ -6669,7 +6669,7 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D170" t="s">
         <v>1148</v>
@@ -6680,7 +6680,7 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D171" t="s">
         <v>1149</v>
@@ -6691,7 +6691,7 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D172" t="s">
         <v>1150</v>
@@ -6702,7 +6702,7 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D173" t="s">
         <v>1151</v>
@@ -6713,7 +6713,7 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D174" t="s">
         <v>1152</v>
@@ -6724,7 +6724,7 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D175" t="s">
         <v>1153</v>
@@ -6735,7 +6735,7 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D176" t="s">
         <v>1154</v>
@@ -6746,7 +6746,7 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D177" t="s">
         <v>1155</v>
@@ -6757,7 +6757,7 @@
         <v>181</v>
       </c>
       <c r="C178" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D178" t="s">
         <v>1156</v>
@@ -6768,7 +6768,7 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D179" t="s">
         <v>1157</v>
@@ -6779,7 +6779,7 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D180" t="s">
         <v>1158</v>
@@ -6790,7 +6790,7 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D181" t="s">
         <v>1159</v>
@@ -6801,7 +6801,7 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D182" t="s">
         <v>1160</v>
@@ -6812,7 +6812,7 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D183" t="s">
         <v>1161</v>
@@ -6823,7 +6823,7 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D184" t="s">
         <v>1162</v>
@@ -6834,7 +6834,7 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D185" t="s">
         <v>1163</v>
@@ -6845,7 +6845,7 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D186" t="s">
         <v>1164</v>
@@ -6856,7 +6856,7 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D187" t="s">
         <v>1165</v>
@@ -6867,7 +6867,7 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D188" t="s">
         <v>1166</v>
@@ -6878,7 +6878,7 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D189" t="s">
         <v>1167</v>
@@ -6889,7 +6889,7 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D190" t="s">
         <v>1168</v>
@@ -6900,7 +6900,7 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D191" t="s">
         <v>1169</v>
@@ -6911,7 +6911,7 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D192" t="s">
         <v>1170</v>
@@ -6922,7 +6922,7 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D193" t="s">
         <v>1171</v>
@@ -6933,7 +6933,7 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D194" t="s">
         <v>1172</v>
@@ -6944,7 +6944,7 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D195" t="s">
         <v>1173</v>
@@ -6955,7 +6955,7 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D196" t="s">
         <v>1174</v>
@@ -6966,7 +6966,7 @@
         <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D197" t="s">
         <v>1175</v>
@@ -6977,7 +6977,7 @@
         <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D198" t="s">
         <v>1176</v>
@@ -6988,7 +6988,7 @@
         <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D199" t="s">
         <v>1177</v>
@@ -6999,7 +6999,7 @@
         <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D200" t="s">
         <v>1178</v>
@@ -7010,7 +7010,7 @@
         <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D201" t="s">
         <v>1179</v>
@@ -7021,7 +7021,7 @@
         <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D202" t="s">
         <v>1180</v>
@@ -7032,7 +7032,7 @@
         <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D203" t="s">
         <v>1181</v>
@@ -7043,7 +7043,7 @@
         <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D204" t="s">
         <v>1182</v>
@@ -7054,7 +7054,7 @@
         <v>208</v>
       </c>
       <c r="C205" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D205" t="s">
         <v>1183</v>
@@ -7065,7 +7065,7 @@
         <v>209</v>
       </c>
       <c r="C206" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D206" t="s">
         <v>1184</v>
@@ -7076,7 +7076,7 @@
         <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D207" t="s">
         <v>1185</v>
@@ -7087,7 +7087,7 @@
         <v>211</v>
       </c>
       <c r="C208" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D208" t="s">
         <v>1186</v>
@@ -7098,7 +7098,7 @@
         <v>212</v>
       </c>
       <c r="C209" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D209" t="s">
         <v>1187</v>
@@ -7109,7 +7109,7 @@
         <v>213</v>
       </c>
       <c r="C210" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D210" t="s">
         <v>1188</v>
@@ -7120,7 +7120,7 @@
         <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D211" t="s">
         <v>1189</v>
@@ -7131,7 +7131,7 @@
         <v>215</v>
       </c>
       <c r="C212" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D212" t="s">
         <v>1190</v>
@@ -7142,7 +7142,7 @@
         <v>216</v>
       </c>
       <c r="C213" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D213" t="s">
         <v>1191</v>
@@ -7153,7 +7153,7 @@
         <v>217</v>
       </c>
       <c r="C214" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D214" t="s">
         <v>1192</v>
@@ -7164,7 +7164,7 @@
         <v>218</v>
       </c>
       <c r="C215" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D215" t="s">
         <v>1193</v>
@@ -7175,7 +7175,7 @@
         <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D216" t="s">
         <v>1194</v>
@@ -7186,7 +7186,7 @@
         <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D217" t="s">
         <v>1195</v>
@@ -7197,7 +7197,7 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D218" t="s">
         <v>1196</v>
@@ -7208,7 +7208,7 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D219" t="s">
         <v>1197</v>
@@ -7219,7 +7219,7 @@
         <v>223</v>
       </c>
       <c r="C220" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D220" t="s">
         <v>1198</v>
@@ -7230,7 +7230,7 @@
         <v>224</v>
       </c>
       <c r="C221" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D221" t="s">
         <v>1199</v>
@@ -7241,7 +7241,7 @@
         <v>225</v>
       </c>
       <c r="C222" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D222" t="s">
         <v>1200</v>
@@ -7252,7 +7252,7 @@
         <v>226</v>
       </c>
       <c r="C223" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D223" t="s">
         <v>1201</v>
@@ -7263,7 +7263,7 @@
         <v>227</v>
       </c>
       <c r="C224" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D224" t="s">
         <v>1202</v>
@@ -7274,7 +7274,7 @@
         <v>228</v>
       </c>
       <c r="C225" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D225" t="s">
         <v>1203</v>
@@ -7285,7 +7285,7 @@
         <v>229</v>
       </c>
       <c r="C226" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D226" t="s">
         <v>1204</v>
@@ -7296,7 +7296,7 @@
         <v>230</v>
       </c>
       <c r="C227" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D227" t="s">
         <v>1205</v>
@@ -7307,7 +7307,7 @@
         <v>231</v>
       </c>
       <c r="C228" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D228" t="s">
         <v>1206</v>
@@ -7318,7 +7318,7 @@
         <v>232</v>
       </c>
       <c r="C229" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D229" t="s">
         <v>1207</v>
@@ -7329,7 +7329,7 @@
         <v>233</v>
       </c>
       <c r="C230" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D230" t="s">
         <v>1208</v>
@@ -7340,7 +7340,7 @@
         <v>234</v>
       </c>
       <c r="C231" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D231" t="s">
         <v>1209</v>
@@ -7351,7 +7351,7 @@
         <v>235</v>
       </c>
       <c r="C232" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D232" t="s">
         <v>1210</v>
@@ -7362,7 +7362,7 @@
         <v>236</v>
       </c>
       <c r="C233" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D233" t="s">
         <v>1211</v>
@@ -7373,7 +7373,7 @@
         <v>237</v>
       </c>
       <c r="C234" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D234" t="s">
         <v>1212</v>
@@ -7384,7 +7384,7 @@
         <v>238</v>
       </c>
       <c r="C235" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D235" t="s">
         <v>1213</v>
@@ -7395,7 +7395,7 @@
         <v>239</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D236" t="s">
         <v>1214</v>
@@ -7406,7 +7406,7 @@
         <v>240</v>
       </c>
       <c r="C237" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D237" t="s">
         <v>1215</v>
@@ -7417,7 +7417,7 @@
         <v>241</v>
       </c>
       <c r="C238" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D238" t="s">
         <v>1216</v>
@@ -7428,7 +7428,7 @@
         <v>242</v>
       </c>
       <c r="C239" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D239" t="s">
         <v>1217</v>
@@ -7439,7 +7439,7 @@
         <v>243</v>
       </c>
       <c r="C240" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D240" t="s">
         <v>1218</v>
@@ -7450,7 +7450,7 @@
         <v>244</v>
       </c>
       <c r="C241" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D241" t="s">
         <v>1219</v>
@@ -7461,7 +7461,7 @@
         <v>245</v>
       </c>
       <c r="C242" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D242" t="s">
         <v>1220</v>
@@ -7472,7 +7472,7 @@
         <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D243" t="s">
         <v>1221</v>
@@ -7483,7 +7483,7 @@
         <v>247</v>
       </c>
       <c r="C244" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D244" t="s">
         <v>1222</v>
@@ -7494,7 +7494,7 @@
         <v>248</v>
       </c>
       <c r="C245" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D245" t="s">
         <v>1223</v>
@@ -7505,7 +7505,7 @@
         <v>249</v>
       </c>
       <c r="C246" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D246" t="s">
         <v>1224</v>
@@ -7516,7 +7516,7 @@
         <v>250</v>
       </c>
       <c r="C247" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D247" t="s">
         <v>1225</v>
@@ -7527,7 +7527,7 @@
         <v>251</v>
       </c>
       <c r="C248" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D248" t="s">
         <v>1226</v>
@@ -7538,7 +7538,7 @@
         <v>252</v>
       </c>
       <c r="C249" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D249" t="s">
         <v>1227</v>
@@ -7549,7 +7549,7 @@
         <v>253</v>
       </c>
       <c r="C250" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D250" t="s">
         <v>1228</v>
@@ -7560,7 +7560,7 @@
         <v>254</v>
       </c>
       <c r="C251" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D251" t="s">
         <v>1229</v>
@@ -7571,7 +7571,7 @@
         <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D252" t="s">
         <v>1230</v>
@@ -7582,7 +7582,7 @@
         <v>256</v>
       </c>
       <c r="C253" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D253" t="s">
         <v>1231</v>
@@ -7593,7 +7593,7 @@
         <v>257</v>
       </c>
       <c r="C254" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D254" t="s">
         <v>1232</v>
@@ -7604,7 +7604,7 @@
         <v>258</v>
       </c>
       <c r="C255" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D255" t="s">
         <v>1233</v>
@@ -7615,368 +7615,359 @@
         <v>259</v>
       </c>
       <c r="C256" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D256" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="2:4">
       <c r="B257" t="s">
         <v>260</v>
       </c>
       <c r="C257" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D257" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="2:4">
       <c r="B258" t="s">
         <v>261</v>
       </c>
       <c r="C258" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D258" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="2:4">
       <c r="B259" t="s">
         <v>262</v>
       </c>
       <c r="C259" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D259" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" t="s">
-        <v>4</v>
-      </c>
+    <row r="260" spans="2:4">
       <c r="B260" t="s">
         <v>263</v>
       </c>
       <c r="C260" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D260" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" t="s">
-        <v>4</v>
-      </c>
+    <row r="261" spans="2:4">
       <c r="B261" t="s">
         <v>264</v>
       </c>
       <c r="C261" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D261" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="2:4">
       <c r="B262" t="s">
         <v>265</v>
       </c>
       <c r="C262" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D262" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="2:4">
       <c r="B263" t="s">
         <v>266</v>
       </c>
       <c r="C263" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D263" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="2:4">
       <c r="B264" t="s">
         <v>267</v>
       </c>
       <c r="C264" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D264" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="2:4">
       <c r="B265" t="s">
         <v>268</v>
       </c>
       <c r="C265" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D265" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="2:4">
       <c r="B266" t="s">
         <v>269</v>
       </c>
       <c r="C266" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D266" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="2:4">
       <c r="B267" t="s">
         <v>270</v>
       </c>
       <c r="C267" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D267" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="2:4">
       <c r="B268" t="s">
         <v>271</v>
       </c>
       <c r="C268" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D268" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="2:4">
       <c r="B269" t="s">
         <v>272</v>
       </c>
       <c r="C269" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D269" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="2:4">
       <c r="B270" t="s">
         <v>273</v>
       </c>
       <c r="C270" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D270" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="2:4">
       <c r="B271" t="s">
         <v>274</v>
       </c>
       <c r="C271" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D271" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="2:4">
       <c r="B272" t="s">
         <v>275</v>
       </c>
       <c r="C272" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D272" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="2:4">
       <c r="B273" t="s">
         <v>276</v>
       </c>
       <c r="C273" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D273" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="2:4">
       <c r="B274" t="s">
         <v>277</v>
       </c>
       <c r="C274" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D274" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="2:4">
       <c r="B275" t="s">
         <v>278</v>
       </c>
       <c r="C275" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D275" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="2:4">
       <c r="B276" t="s">
         <v>279</v>
       </c>
       <c r="C276" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D276" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="2:4">
       <c r="B277" t="s">
         <v>280</v>
       </c>
       <c r="C277" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D277" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="2:4">
       <c r="B278" t="s">
         <v>281</v>
       </c>
       <c r="C278" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D278" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="2:4">
       <c r="B279" t="s">
         <v>282</v>
       </c>
       <c r="C279" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D279" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="2:4">
       <c r="B280" t="s">
         <v>283</v>
       </c>
       <c r="C280" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D280" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="2:4">
       <c r="B281" t="s">
         <v>284</v>
       </c>
       <c r="C281" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D281" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="2:4">
       <c r="B282" t="s">
         <v>285</v>
       </c>
       <c r="C282" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D282" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="2:4">
       <c r="B283" t="s">
         <v>286</v>
       </c>
       <c r="C283" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D283" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="2:4">
       <c r="B284" t="s">
         <v>287</v>
       </c>
       <c r="C284" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D284" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="2:4">
       <c r="B285" t="s">
         <v>288</v>
       </c>
       <c r="C285" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D285" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="2:4">
       <c r="B286" t="s">
         <v>289</v>
       </c>
       <c r="C286" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D286" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
-        <v>4</v>
-      </c>
+    <row r="287" spans="2:4">
       <c r="B287" t="s">
         <v>290</v>
       </c>
       <c r="C287" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D287" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="2:4">
       <c r="B288" t="s">
         <v>291</v>
       </c>
       <c r="C288" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D288" t="s">
         <v>1266</v>
@@ -7987,7 +7978,7 @@
         <v>292</v>
       </c>
       <c r="C289" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D289" t="s">
         <v>1267</v>
@@ -7998,7 +7989,7 @@
         <v>293</v>
       </c>
       <c r="C290" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D290" t="s">
         <v>1268</v>
@@ -8009,7 +8000,7 @@
         <v>294</v>
       </c>
       <c r="C291" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D291" t="s">
         <v>1269</v>
@@ -8020,7 +8011,7 @@
         <v>295</v>
       </c>
       <c r="C292" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D292" t="s">
         <v>1270</v>
@@ -8031,7 +8022,7 @@
         <v>296</v>
       </c>
       <c r="C293" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D293" t="s">
         <v>1271</v>
@@ -8042,7 +8033,7 @@
         <v>297</v>
       </c>
       <c r="C294" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D294" t="s">
         <v>1272</v>
@@ -8053,7 +8044,7 @@
         <v>298</v>
       </c>
       <c r="C295" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D295" t="s">
         <v>1273</v>
@@ -8064,7 +8055,7 @@
         <v>299</v>
       </c>
       <c r="C296" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D296" t="s">
         <v>1274</v>
@@ -8075,7 +8066,7 @@
         <v>300</v>
       </c>
       <c r="C297" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D297" t="s">
         <v>1275</v>
@@ -8086,7 +8077,7 @@
         <v>301</v>
       </c>
       <c r="C298" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D298" t="s">
         <v>1276</v>
@@ -8097,7 +8088,7 @@
         <v>302</v>
       </c>
       <c r="C299" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D299" t="s">
         <v>1277</v>
@@ -8108,7 +8099,7 @@
         <v>303</v>
       </c>
       <c r="C300" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D300" t="s">
         <v>1278</v>
@@ -8119,7 +8110,7 @@
         <v>304</v>
       </c>
       <c r="C301" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D301" t="s">
         <v>1279</v>
@@ -8130,7 +8121,7 @@
         <v>305</v>
       </c>
       <c r="C302" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D302" t="s">
         <v>1280</v>
@@ -8141,7 +8132,7 @@
         <v>306</v>
       </c>
       <c r="C303" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D303" t="s">
         <v>1281</v>
@@ -8152,7 +8143,7 @@
         <v>307</v>
       </c>
       <c r="C304" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D304" t="s">
         <v>1282</v>
@@ -8163,7 +8154,7 @@
         <v>308</v>
       </c>
       <c r="C305" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D305" t="s">
         <v>1283</v>
@@ -8174,7 +8165,7 @@
         <v>309</v>
       </c>
       <c r="C306" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D306" t="s">
         <v>1284</v>
@@ -8185,7 +8176,7 @@
         <v>310</v>
       </c>
       <c r="C307" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D307" t="s">
         <v>1285</v>
@@ -8196,7 +8187,7 @@
         <v>311</v>
       </c>
       <c r="C308" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D308" t="s">
         <v>1286</v>
@@ -8207,7 +8198,7 @@
         <v>312</v>
       </c>
       <c r="C309" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D309" t="s">
         <v>1287</v>
@@ -8218,7 +8209,7 @@
         <v>313</v>
       </c>
       <c r="C310" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D310" t="s">
         <v>1288</v>
@@ -8229,7 +8220,7 @@
         <v>314</v>
       </c>
       <c r="C311" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D311" t="s">
         <v>1289</v>
@@ -8240,7 +8231,7 @@
         <v>315</v>
       </c>
       <c r="C312" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D312" t="s">
         <v>1290</v>
@@ -8251,7 +8242,7 @@
         <v>316</v>
       </c>
       <c r="C313" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D313" t="s">
         <v>1291</v>
@@ -8262,7 +8253,7 @@
         <v>317</v>
       </c>
       <c r="C314" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D314" t="s">
         <v>1292</v>
@@ -8273,7 +8264,7 @@
         <v>318</v>
       </c>
       <c r="C315" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D315" t="s">
         <v>1293</v>
@@ -8284,7 +8275,7 @@
         <v>319</v>
       </c>
       <c r="C316" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D316" t="s">
         <v>1294</v>
@@ -8295,7 +8286,7 @@
         <v>320</v>
       </c>
       <c r="C317" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D317" t="s">
         <v>1295</v>
@@ -8306,7 +8297,7 @@
         <v>321</v>
       </c>
       <c r="C318" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D318" t="s">
         <v>1296</v>
@@ -8317,7 +8308,7 @@
         <v>322</v>
       </c>
       <c r="C319" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D319" t="s">
         <v>1297</v>
@@ -8328,7 +8319,7 @@
         <v>323</v>
       </c>
       <c r="C320" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D320" t="s">
         <v>1298</v>
@@ -8339,7 +8330,7 @@
         <v>324</v>
       </c>
       <c r="C321" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D321" t="s">
         <v>1299</v>
@@ -8350,7 +8341,7 @@
         <v>325</v>
       </c>
       <c r="C322" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D322" t="s">
         <v>1300</v>
@@ -8361,7 +8352,7 @@
         <v>326</v>
       </c>
       <c r="C323" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D323" t="s">
         <v>1301</v>
@@ -8372,7 +8363,7 @@
         <v>327</v>
       </c>
       <c r="C324" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D324" t="s">
         <v>1302</v>
@@ -8383,7 +8374,7 @@
         <v>328</v>
       </c>
       <c r="C325" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D325" t="s">
         <v>1303</v>
@@ -8394,7 +8385,7 @@
         <v>329</v>
       </c>
       <c r="C326" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D326" t="s">
         <v>1304</v>
@@ -8405,7 +8396,7 @@
         <v>330</v>
       </c>
       <c r="C327" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D327" t="s">
         <v>1305</v>
@@ -8416,7 +8407,7 @@
         <v>331</v>
       </c>
       <c r="C328" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D328" t="s">
         <v>1306</v>
@@ -8427,7 +8418,7 @@
         <v>332</v>
       </c>
       <c r="C329" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D329" t="s">
         <v>1307</v>
@@ -8438,7 +8429,7 @@
         <v>333</v>
       </c>
       <c r="C330" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D330" t="s">
         <v>1308</v>
@@ -8449,7 +8440,7 @@
         <v>334</v>
       </c>
       <c r="C331" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D331" t="s">
         <v>1309</v>
@@ -8460,7 +8451,7 @@
         <v>335</v>
       </c>
       <c r="C332" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D332" t="s">
         <v>1310</v>
@@ -8471,7 +8462,7 @@
         <v>336</v>
       </c>
       <c r="C333" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D333" t="s">
         <v>1311</v>
@@ -8482,7 +8473,7 @@
         <v>337</v>
       </c>
       <c r="C334" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D334" t="s">
         <v>1312</v>
@@ -8493,7 +8484,7 @@
         <v>338</v>
       </c>
       <c r="C335" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D335" t="s">
         <v>1313</v>
@@ -8504,7 +8495,7 @@
         <v>339</v>
       </c>
       <c r="C336" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D336" t="s">
         <v>1314</v>
@@ -8515,7 +8506,7 @@
         <v>340</v>
       </c>
       <c r="C337" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D337" t="s">
         <v>1315</v>
@@ -8526,7 +8517,7 @@
         <v>341</v>
       </c>
       <c r="C338" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D338" t="s">
         <v>1316</v>
@@ -8537,7 +8528,7 @@
         <v>342</v>
       </c>
       <c r="C339" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D339" t="s">
         <v>1317</v>
@@ -8548,7 +8539,7 @@
         <v>343</v>
       </c>
       <c r="C340" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D340" t="s">
         <v>1318</v>
@@ -8559,7 +8550,7 @@
         <v>344</v>
       </c>
       <c r="C341" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D341" t="s">
         <v>1319</v>
@@ -8570,7 +8561,7 @@
         <v>345</v>
       </c>
       <c r="C342" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D342" t="s">
         <v>1320</v>
@@ -8581,7 +8572,7 @@
         <v>346</v>
       </c>
       <c r="C343" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D343" t="s">
         <v>1321</v>
@@ -8592,7 +8583,7 @@
         <v>347</v>
       </c>
       <c r="C344" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D344" t="s">
         <v>1322</v>
@@ -8603,7 +8594,7 @@
         <v>348</v>
       </c>
       <c r="C345" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D345" t="s">
         <v>1323</v>
@@ -8614,7 +8605,7 @@
         <v>349</v>
       </c>
       <c r="C346" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D346" t="s">
         <v>1324</v>
@@ -8625,7 +8616,7 @@
         <v>350</v>
       </c>
       <c r="C347" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D347" t="s">
         <v>1325</v>
@@ -8636,7 +8627,7 @@
         <v>351</v>
       </c>
       <c r="C348" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D348" t="s">
         <v>1326</v>
@@ -8647,7 +8638,7 @@
         <v>352</v>
       </c>
       <c r="C349" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D349" t="s">
         <v>1327</v>
@@ -8658,7 +8649,7 @@
         <v>353</v>
       </c>
       <c r="C350" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D350" t="s">
         <v>1328</v>
@@ -8669,7 +8660,7 @@
         <v>354</v>
       </c>
       <c r="C351" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D351" t="s">
         <v>1329</v>
@@ -8680,7 +8671,7 @@
         <v>355</v>
       </c>
       <c r="C352" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D352" t="s">
         <v>1330</v>
@@ -8691,7 +8682,7 @@
         <v>356</v>
       </c>
       <c r="C353" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D353" t="s">
         <v>1331</v>
@@ -8702,7 +8693,7 @@
         <v>357</v>
       </c>
       <c r="C354" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D354" t="s">
         <v>1332</v>
@@ -8713,7 +8704,7 @@
         <v>358</v>
       </c>
       <c r="C355" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D355" t="s">
         <v>1333</v>
@@ -8724,7 +8715,7 @@
         <v>359</v>
       </c>
       <c r="C356" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D356" t="s">
         <v>1334</v>
@@ -8735,7 +8726,7 @@
         <v>360</v>
       </c>
       <c r="C357" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D357" t="s">
         <v>1335</v>
@@ -8746,7 +8737,7 @@
         <v>361</v>
       </c>
       <c r="C358" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D358" t="s">
         <v>1336</v>
@@ -8757,7 +8748,7 @@
         <v>362</v>
       </c>
       <c r="C359" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D359" t="s">
         <v>1337</v>
@@ -8768,7 +8759,7 @@
         <v>363</v>
       </c>
       <c r="C360" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D360" t="s">
         <v>1338</v>
@@ -8779,7 +8770,7 @@
         <v>364</v>
       </c>
       <c r="C361" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D361" t="s">
         <v>1339</v>
@@ -8790,7 +8781,7 @@
         <v>365</v>
       </c>
       <c r="C362" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D362" t="s">
         <v>1340</v>
@@ -8801,7 +8792,7 @@
         <v>366</v>
       </c>
       <c r="C363" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D363" t="s">
         <v>1341</v>
@@ -8812,7 +8803,7 @@
         <v>367</v>
       </c>
       <c r="C364" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D364" t="s">
         <v>1342</v>
@@ -8823,7 +8814,7 @@
         <v>368</v>
       </c>
       <c r="C365" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D365" t="s">
         <v>1343</v>
@@ -8834,7 +8825,7 @@
         <v>369</v>
       </c>
       <c r="C366" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D366" t="s">
         <v>1344</v>
@@ -8845,7 +8836,7 @@
         <v>370</v>
       </c>
       <c r="C367" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D367" t="s">
         <v>1345</v>
@@ -8856,368 +8847,359 @@
         <v>371</v>
       </c>
       <c r="C368" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D368" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="2:4">
       <c r="B369" t="s">
         <v>372</v>
       </c>
       <c r="C369" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D369" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="2:4">
       <c r="B370" t="s">
         <v>373</v>
       </c>
       <c r="C370" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D370" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="2:4">
       <c r="B371" t="s">
         <v>374</v>
       </c>
       <c r="C371" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D371" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="2:4">
       <c r="B372" t="s">
         <v>375</v>
       </c>
       <c r="C372" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D372" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="2:4">
       <c r="B373" t="s">
         <v>376</v>
       </c>
       <c r="C373" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D373" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="2:4">
       <c r="B374" t="s">
         <v>377</v>
       </c>
       <c r="C374" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D374" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="2:4">
       <c r="B375" t="s">
         <v>378</v>
       </c>
       <c r="C375" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D375" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="2:4">
       <c r="B376" t="s">
         <v>379</v>
       </c>
       <c r="C376" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D376" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="2:4">
       <c r="B377" t="s">
         <v>380</v>
       </c>
       <c r="C377" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D377" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="2:4">
       <c r="B378" t="s">
         <v>381</v>
       </c>
       <c r="C378" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D378" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="2:4">
       <c r="B379" t="s">
         <v>382</v>
       </c>
       <c r="C379" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D379" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" t="s">
-        <v>4</v>
-      </c>
+    <row r="380" spans="2:4">
       <c r="B380" t="s">
         <v>383</v>
       </c>
       <c r="C380" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D380" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" t="s">
-        <v>4</v>
-      </c>
+    <row r="381" spans="2:4">
       <c r="B381" t="s">
         <v>384</v>
       </c>
       <c r="C381" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D381" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="2:4">
       <c r="B382" t="s">
         <v>385</v>
       </c>
       <c r="C382" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D382" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="2:4">
       <c r="B383" t="s">
         <v>386</v>
       </c>
       <c r="C383" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D383" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="2:4">
       <c r="B384" t="s">
         <v>387</v>
       </c>
       <c r="C384" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D384" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="2:4">
       <c r="B385" t="s">
         <v>388</v>
       </c>
       <c r="C385" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D385" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="2:4">
       <c r="B386" t="s">
         <v>389</v>
       </c>
       <c r="C386" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D386" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="2:4">
       <c r="B387" t="s">
         <v>390</v>
       </c>
       <c r="C387" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D387" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="2:4">
       <c r="B388" t="s">
         <v>391</v>
       </c>
       <c r="C388" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D388" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="2:4">
       <c r="B389" t="s">
         <v>392</v>
       </c>
       <c r="C389" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D389" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="2:4">
       <c r="B390" t="s">
         <v>393</v>
       </c>
       <c r="C390" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D390" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="2:4">
       <c r="B391" t="s">
         <v>394</v>
       </c>
       <c r="C391" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D391" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="2:4">
       <c r="B392" t="s">
         <v>395</v>
       </c>
       <c r="C392" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D392" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" t="s">
-        <v>4</v>
-      </c>
+    <row r="393" spans="2:4">
       <c r="B393" t="s">
         <v>396</v>
       </c>
       <c r="C393" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D393" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="2:4">
       <c r="B394" t="s">
         <v>397</v>
       </c>
       <c r="C394" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D394" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="2:4">
       <c r="B395" t="s">
         <v>398</v>
       </c>
       <c r="C395" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D395" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="2:4">
       <c r="B396" t="s">
         <v>399</v>
       </c>
       <c r="C396" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D396" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="2:4">
       <c r="B397" t="s">
         <v>400</v>
       </c>
       <c r="C397" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D397" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="2:4">
       <c r="B398" t="s">
         <v>401</v>
       </c>
       <c r="C398" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D398" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="2:4">
       <c r="B399" t="s">
         <v>402</v>
       </c>
       <c r="C399" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D399" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="2:4">
       <c r="B400" t="s">
         <v>403</v>
       </c>
       <c r="C400" t="s">
-        <v>696</v>
+        <v>888</v>
       </c>
       <c r="D400" t="s">
         <v>1378</v>
@@ -9228,7 +9210,7 @@
         <v>404</v>
       </c>
       <c r="C401" t="s">
-        <v>635</v>
+        <v>697</v>
       </c>
       <c r="D401" t="s">
         <v>1379</v>
@@ -9239,7 +9221,7 @@
         <v>405</v>
       </c>
       <c r="C402" t="s">
-        <v>761</v>
+        <v>636</v>
       </c>
       <c r="D402" t="s">
         <v>1380</v>
@@ -9250,7 +9232,7 @@
         <v>406</v>
       </c>
       <c r="C403" t="s">
-        <v>887</v>
+        <v>762</v>
       </c>
       <c r="D403" t="s">
         <v>1381</v>
@@ -9261,7 +9243,7 @@
         <v>407</v>
       </c>
       <c r="C404" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D404" t="s">
         <v>1382</v>
@@ -9272,7 +9254,7 @@
         <v>408</v>
       </c>
       <c r="C405" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D405" t="s">
         <v>1383</v>
@@ -9283,7 +9265,7 @@
         <v>409</v>
       </c>
       <c r="C406" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D406" t="s">
         <v>1384</v>
@@ -9294,7 +9276,7 @@
         <v>410</v>
       </c>
       <c r="C407" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D407" t="s">
         <v>1385</v>
@@ -9305,7 +9287,7 @@
         <v>411</v>
       </c>
       <c r="C408" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D408" t="s">
         <v>1386</v>
@@ -9316,7 +9298,7 @@
         <v>412</v>
       </c>
       <c r="C409" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D409" t="s">
         <v>1387</v>
@@ -9327,7 +9309,7 @@
         <v>413</v>
       </c>
       <c r="C410" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D410" t="s">
         <v>1388</v>
@@ -9338,7 +9320,7 @@
         <v>414</v>
       </c>
       <c r="C411" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D411" t="s">
         <v>1389</v>
@@ -9349,7 +9331,7 @@
         <v>415</v>
       </c>
       <c r="C412" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D412" t="s">
         <v>1390</v>
@@ -9360,7 +9342,7 @@
         <v>416</v>
       </c>
       <c r="C413" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D413" t="s">
         <v>1391</v>
@@ -9371,7 +9353,7 @@
         <v>417</v>
       </c>
       <c r="C414" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D414" t="s">
         <v>1392</v>
@@ -9382,7 +9364,7 @@
         <v>418</v>
       </c>
       <c r="C415" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D415" t="s">
         <v>1393</v>
@@ -9393,7 +9375,7 @@
         <v>419</v>
       </c>
       <c r="C416" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D416" t="s">
         <v>1394</v>
@@ -9404,7 +9386,7 @@
         <v>420</v>
       </c>
       <c r="C417" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D417" t="s">
         <v>1395</v>
@@ -9415,7 +9397,7 @@
         <v>421</v>
       </c>
       <c r="C418" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D418" t="s">
         <v>1396</v>
@@ -9426,7 +9408,7 @@
         <v>422</v>
       </c>
       <c r="C419" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D419" t="s">
         <v>1397</v>
@@ -9437,7 +9419,7 @@
         <v>423</v>
       </c>
       <c r="C420" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D420" t="s">
         <v>1398</v>
@@ -9448,7 +9430,7 @@
         <v>424</v>
       </c>
       <c r="C421" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D421" t="s">
         <v>1399</v>
@@ -9459,7 +9441,7 @@
         <v>425</v>
       </c>
       <c r="C422" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D422" t="s">
         <v>1400</v>
@@ -9470,7 +9452,7 @@
         <v>426</v>
       </c>
       <c r="C423" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D423" t="s">
         <v>1401</v>
@@ -9481,7 +9463,7 @@
         <v>427</v>
       </c>
       <c r="C424" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D424" t="s">
         <v>1402</v>
@@ -9492,7 +9474,7 @@
         <v>428</v>
       </c>
       <c r="C425" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D425" t="s">
         <v>1403</v>
@@ -9503,7 +9485,7 @@
         <v>429</v>
       </c>
       <c r="C426" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D426" t="s">
         <v>1404</v>
@@ -9514,7 +9496,7 @@
         <v>430</v>
       </c>
       <c r="C427" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D427" t="s">
         <v>1405</v>
@@ -9525,7 +9507,7 @@
         <v>431</v>
       </c>
       <c r="C428" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D428" t="s">
         <v>1406</v>
@@ -9536,7 +9518,7 @@
         <v>432</v>
       </c>
       <c r="C429" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D429" t="s">
         <v>1407</v>
@@ -9547,7 +9529,7 @@
         <v>433</v>
       </c>
       <c r="C430" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D430" t="s">
         <v>1408</v>
@@ -9558,7 +9540,7 @@
         <v>434</v>
       </c>
       <c r="C431" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D431" t="s">
         <v>1409</v>
@@ -9569,200 +9551,206 @@
         <v>435</v>
       </c>
       <c r="C432" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D432" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="433" spans="2:4">
+    <row r="433" spans="1:4">
       <c r="B433" t="s">
         <v>436</v>
       </c>
       <c r="C433" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D433" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="434" spans="2:4">
+    <row r="434" spans="1:4">
       <c r="B434" t="s">
         <v>437</v>
       </c>
       <c r="C434" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D434" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="435" spans="2:4">
+    <row r="435" spans="1:4">
       <c r="B435" t="s">
         <v>438</v>
       </c>
       <c r="C435" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D435" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="436" spans="2:4">
+    <row r="436" spans="1:4">
       <c r="B436" t="s">
         <v>439</v>
       </c>
       <c r="C436" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D436" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="437" spans="2:4">
+    <row r="437" spans="1:4">
       <c r="B437" t="s">
         <v>440</v>
       </c>
       <c r="C437" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D437" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="438" spans="2:4">
+    <row r="438" spans="1:4">
       <c r="B438" t="s">
         <v>441</v>
       </c>
       <c r="C438" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D438" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="439" spans="2:4">
+    <row r="439" spans="1:4">
       <c r="B439" t="s">
         <v>442</v>
       </c>
       <c r="C439" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D439" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="440" spans="2:4">
+    <row r="440" spans="1:4">
       <c r="B440" t="s">
         <v>443</v>
       </c>
       <c r="C440" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D440" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="441" spans="2:4">
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>4</v>
+      </c>
       <c r="B441" t="s">
         <v>444</v>
       </c>
       <c r="C441" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D441" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="442" spans="2:4">
+    <row r="442" spans="1:4">
       <c r="B442" t="s">
         <v>445</v>
       </c>
       <c r="C442" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D442" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="443" spans="2:4">
+    <row r="443" spans="1:4">
       <c r="B443" t="s">
         <v>446</v>
       </c>
       <c r="C443" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D443" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="444" spans="2:4">
+    <row r="444" spans="1:4">
       <c r="B444" t="s">
         <v>447</v>
       </c>
       <c r="C444" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D444" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="445" spans="2:4">
+    <row r="445" spans="1:4">
       <c r="B445" t="s">
         <v>448</v>
       </c>
       <c r="C445" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D445" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="446" spans="2:4">
+    <row r="446" spans="1:4">
       <c r="B446" t="s">
         <v>449</v>
       </c>
       <c r="C446" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D446" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="447" spans="2:4">
+    <row r="447" spans="1:4">
       <c r="B447" t="s">
         <v>450</v>
       </c>
       <c r="C447" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D447" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="448" spans="2:4">
+    <row r="448" spans="1:4">
       <c r="B448" t="s">
         <v>451</v>
       </c>
       <c r="C448" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D448" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="449" spans="2:4">
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
       <c r="B449" t="s">
         <v>452</v>
       </c>
       <c r="C449" t="s">
-        <v>933</v>
+        <v>891</v>
       </c>
       <c r="D449" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="450" spans="2:4">
+    <row r="450" spans="1:4">
       <c r="B450" t="s">
         <v>453</v>
       </c>
@@ -9773,7 +9761,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="451" spans="2:4">
+    <row r="451" spans="1:4">
       <c r="B451" t="s">
         <v>454</v>
       </c>
@@ -9784,7 +9772,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="452" spans="2:4">
+    <row r="452" spans="1:4">
       <c r="B452" t="s">
         <v>455</v>
       </c>
@@ -9795,7 +9783,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="453" spans="2:4">
+    <row r="453" spans="1:4">
       <c r="B453" t="s">
         <v>456</v>
       </c>
@@ -9806,7 +9794,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="454" spans="2:4">
+    <row r="454" spans="1:4">
       <c r="B454" t="s">
         <v>457</v>
       </c>
@@ -9817,7 +9805,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="455" spans="2:4">
+    <row r="455" spans="1:4">
       <c r="B455" t="s">
         <v>458</v>
       </c>
@@ -9828,7 +9816,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="456" spans="2:4">
+    <row r="456" spans="1:4">
       <c r="B456" t="s">
         <v>459</v>
       </c>
@@ -9839,7 +9827,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="457" spans="2:4">
+    <row r="457" spans="1:4">
       <c r="B457" t="s">
         <v>460</v>
       </c>
@@ -9850,7 +9838,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="458" spans="2:4">
+    <row r="458" spans="1:4">
       <c r="B458" t="s">
         <v>461</v>
       </c>
@@ -9861,7 +9849,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="459" spans="2:4">
+    <row r="459" spans="1:4">
       <c r="B459" t="s">
         <v>462</v>
       </c>
@@ -9872,7 +9860,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="460" spans="2:4">
+    <row r="460" spans="1:4">
       <c r="B460" t="s">
         <v>463</v>
       </c>
@@ -9883,7 +9871,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="461" spans="2:4">
+    <row r="461" spans="1:4">
       <c r="B461" t="s">
         <v>464</v>
       </c>
@@ -9894,7 +9882,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="462" spans="2:4">
+    <row r="462" spans="1:4">
       <c r="B462" t="s">
         <v>465</v>
       </c>
@@ -9905,7 +9893,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="463" spans="2:4">
+    <row r="463" spans="1:4">
       <c r="B463" t="s">
         <v>466</v>
       </c>
@@ -9916,7 +9904,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="464" spans="2:4">
+    <row r="464" spans="1:4">
       <c r="B464" t="s">
         <v>467</v>
       </c>
@@ -10196,7 +10184,7 @@
         <v>492</v>
       </c>
       <c r="C489" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="D489" t="s">
         <v>1467</v>
@@ -10207,7 +10195,7 @@
         <v>493</v>
       </c>
       <c r="C490" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D490" t="s">
         <v>1468</v>
@@ -10218,7 +10206,7 @@
         <v>494</v>
       </c>
       <c r="C491" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D491" t="s">
         <v>1469</v>
@@ -10229,7 +10217,7 @@
         <v>495</v>
       </c>
       <c r="C492" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D492" t="s">
         <v>1470</v>
@@ -10240,7 +10228,7 @@
         <v>496</v>
       </c>
       <c r="C493" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D493" t="s">
         <v>1471</v>
@@ -10251,7 +10239,7 @@
         <v>497</v>
       </c>
       <c r="C494" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D494" t="s">
         <v>1472</v>
@@ -10262,10 +10250,21 @@
         <v>498</v>
       </c>
       <c r="C495" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D495" t="s">
         <v>1473</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4">
+      <c r="B496" t="s">
+        <v>499</v>
+      </c>
+      <c r="C496" t="s">
+        <v>979</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1474</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/POS_VALIDATION/OUTPUT/KPIs for DB - PoS 2020 - kpi_level_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1474">
   <si>
     <t>NEW kpi_level_2</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t xml:space="preserve">INSERT IGNORE INTO `static`.`kpi_level_2` (`type`, `client_name`, `kpi_family_fk`, `version`, `numerator_type_fk`, `denominator_type_fk`, `kpi_score_type_fk`, `kpi_result_type_fk`, `valid_from`, `valid_until`, `delete_time`, `initiated_by`, `context_type_fk`, `kpi_calculation_stage_fk`, `session_relevance`, `scene_relevance`, `planogram_relevance`, `live_session_relevance`, `live_scene_relevance`, `kpi_target_type_fk`, `is_percent`) VALUES </t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
   <si>
     <t>AVAILABILITY</t>
@@ -4818,5453 +4815,5447 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D11" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D19" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D20" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D22" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D24" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D25" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D26" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D27" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D28" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D29" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D31" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D32" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D33" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D36" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D37" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D39" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D40" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D42" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D43" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D44" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D45" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D47" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D48" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D49" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D50" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D51" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D52" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D53" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D54" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D55" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D56" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D57" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D58" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D59" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D60" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D61" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D62" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D63" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D64" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D65" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D66" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D67" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D68" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D69" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D70" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D71" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D72" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D73" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D74" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D76" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D77" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D78" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D79" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D80" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D81" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D82" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D83" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D84" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D85" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D86" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D87" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D88" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D89" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D90" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D91" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D92" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D93" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D94" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D95" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D96" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D97" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D98" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D99" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D100" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D101" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D102" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D103" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D104" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="105" spans="2:4">
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D105" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="106" spans="2:4">
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D106" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D107" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D108" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="109" spans="2:4">
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D109" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="110" spans="2:4">
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D110" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="111" spans="2:4">
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D111" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D112" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="113" spans="2:4">
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D113" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="114" spans="2:4">
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C114" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D114" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="115" spans="2:4">
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D115" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="116" spans="2:4">
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D116" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="117" spans="2:4">
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D117" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="118" spans="2:4">
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D118" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="119" spans="2:4">
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D119" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="120" spans="2:4">
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D120" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="121" spans="2:4">
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D121" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="122" spans="2:4">
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C122" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D122" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="123" spans="2:4">
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C123" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D123" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="124" spans="2:4">
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D124" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="125" spans="2:4">
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C125" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D125" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="126" spans="2:4">
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C126" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D126" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="127" spans="2:4">
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D127" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="128" spans="2:4">
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D128" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C129" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D129" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D130" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D131" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D132" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D133" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D134" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D135" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D136" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D137" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D138" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C139" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D139" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D140" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D141" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D142" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D143" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D144" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C145" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D145" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D146" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D147" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D148" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="149" spans="2:4">
       <c r="B149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D149" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D150" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D151" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C152" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D152" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D154" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D155" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D156" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="B157" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D157" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D158" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D159" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="B160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D160" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="161" spans="2:4">
       <c r="B161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D161" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="162" spans="2:4">
       <c r="B162" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D162" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="163" spans="2:4">
       <c r="B163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D163" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="164" spans="2:4">
       <c r="B164" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D164" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="165" spans="2:4">
       <c r="B165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D165" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="166" spans="2:4">
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D166" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="167" spans="2:4">
       <c r="B167" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D167" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="168" spans="2:4">
       <c r="B168" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D168" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="169" spans="2:4">
       <c r="B169" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D169" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="170" spans="2:4">
       <c r="B170" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D170" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="171" spans="2:4">
       <c r="B171" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D171" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="172" spans="2:4">
       <c r="B172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D172" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="B173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D173" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="B174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D174" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D175" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="B176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D176" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D177" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D178" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D179" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D180" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="181" spans="2:4">
       <c r="B181" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D181" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D182" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="183" spans="2:4">
       <c r="B183" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D183" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D184" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="B185" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D185" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="B186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D186" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="B187" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D187" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="B188" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D188" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="189" spans="2:4">
       <c r="B189" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D189" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D190" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D191" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D192" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="193" spans="2:4">
       <c r="B193" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D193" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="194" spans="2:4">
       <c r="B194" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D194" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="195" spans="2:4">
       <c r="B195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D195" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="196" spans="2:4">
       <c r="B196" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D196" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="197" spans="2:4">
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D197" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="198" spans="2:4">
       <c r="B198" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D198" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="199" spans="2:4">
       <c r="B199" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D199" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="200" spans="2:4">
       <c r="B200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D200" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D201" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D202" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D203" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D204" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D205" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D206" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D207" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D208" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D209" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D210" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D211" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D212" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D213" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D214" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D215" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D216" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D217" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D218" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D219" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D220" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D221" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D222" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D224" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="225" spans="2:4">
       <c r="B225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D225" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="226" spans="2:4">
       <c r="B226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D226" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="227" spans="2:4">
       <c r="B227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D227" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="228" spans="2:4">
       <c r="B228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D228" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="229" spans="2:4">
       <c r="B229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="230" spans="2:4">
       <c r="B230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D230" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="231" spans="2:4">
       <c r="B231" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D231" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="232" spans="2:4">
       <c r="B232" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="233" spans="2:4">
       <c r="B233" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D233" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="234" spans="2:4">
       <c r="B234" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D234" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="235" spans="2:4">
       <c r="B235" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D235" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="236" spans="2:4">
       <c r="B236" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D236" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="237" spans="2:4">
       <c r="B237" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D237" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="238" spans="2:4">
       <c r="B238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D238" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="239" spans="2:4">
       <c r="B239" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D239" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="240" spans="2:4">
       <c r="B240" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D240" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="241" spans="2:4">
       <c r="B241" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D241" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="242" spans="2:4">
       <c r="B242" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C242" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D242" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="243" spans="2:4">
       <c r="B243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C243" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D243" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="244" spans="2:4">
       <c r="B244" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D244" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="245" spans="2:4">
       <c r="B245" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C245" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D245" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="246" spans="2:4">
       <c r="B246" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C246" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D246" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="247" spans="2:4">
       <c r="B247" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C247" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D247" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="248" spans="2:4">
       <c r="B248" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D248" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="249" spans="2:4">
       <c r="B249" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D249" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="250" spans="2:4">
       <c r="B250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D250" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="251" spans="2:4">
       <c r="B251" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C251" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D251" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="252" spans="2:4">
       <c r="B252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D252" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="253" spans="2:4">
       <c r="B253" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D253" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="254" spans="2:4">
       <c r="B254" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C254" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D254" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="255" spans="2:4">
       <c r="B255" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C255" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D255" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C256" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D256" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C257" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D257" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C258" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D258" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C259" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D259" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C260" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D260" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="261" spans="2:4">
       <c r="B261" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C261" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D261" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C262" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D262" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C263" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D263" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="B264" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C264" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D264" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C265" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D265" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="266" spans="2:4">
       <c r="B266" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C266" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D266" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="267" spans="2:4">
       <c r="B267" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C267" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D267" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="268" spans="2:4">
       <c r="B268" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C268" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D268" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="269" spans="2:4">
       <c r="B269" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C269" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D269" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="270" spans="2:4">
       <c r="B270" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C270" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D270" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="271" spans="2:4">
       <c r="B271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C271" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D271" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="272" spans="2:4">
       <c r="B272" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C272" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D272" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="273" spans="2:4">
       <c r="B273" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C273" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D273" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="274" spans="2:4">
       <c r="B274" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C274" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D274" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="275" spans="2:4">
       <c r="B275" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D275" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="276" spans="2:4">
       <c r="B276" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C276" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D276" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="277" spans="2:4">
       <c r="B277" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C277" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D277" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="278" spans="2:4">
       <c r="B278" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C278" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D278" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="279" spans="2:4">
       <c r="B279" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C279" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D279" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="280" spans="2:4">
       <c r="B280" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D280" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="281" spans="2:4">
       <c r="B281" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C281" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D281" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="282" spans="2:4">
       <c r="B282" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C282" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D282" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="283" spans="2:4">
       <c r="B283" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D283" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="284" spans="2:4">
       <c r="B284" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C284" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D284" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="285" spans="2:4">
       <c r="B285" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C285" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D285" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="286" spans="2:4">
       <c r="B286" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C286" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D286" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="287" spans="2:4">
       <c r="B287" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C287" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D287" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="288" spans="2:4">
       <c r="B288" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C288" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D288" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="289" spans="2:4">
       <c r="B289" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C289" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D289" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="290" spans="2:4">
       <c r="B290" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C290" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D290" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="291" spans="2:4">
       <c r="B291" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C291" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D291" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="292" spans="2:4">
       <c r="B292" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C292" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D292" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="293" spans="2:4">
       <c r="B293" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C293" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D293" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="294" spans="2:4">
       <c r="B294" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C294" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D294" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="295" spans="2:4">
       <c r="B295" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C295" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D295" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="296" spans="2:4">
       <c r="B296" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D296" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="297" spans="2:4">
       <c r="B297" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C297" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D297" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="298" spans="2:4">
       <c r="B298" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D298" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="299" spans="2:4">
       <c r="B299" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C299" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D299" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="300" spans="2:4">
       <c r="B300" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C300" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D300" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="301" spans="2:4">
       <c r="B301" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C301" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D301" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="302" spans="2:4">
       <c r="B302" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C302" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D302" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="303" spans="2:4">
       <c r="B303" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C303" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D303" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="304" spans="2:4">
       <c r="B304" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C304" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D304" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="305" spans="2:4">
       <c r="B305" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C305" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D305" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="306" spans="2:4">
       <c r="B306" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C306" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D306" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="307" spans="2:4">
       <c r="B307" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C307" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D307" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="308" spans="2:4">
       <c r="B308" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C308" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D308" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="309" spans="2:4">
       <c r="B309" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C309" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D309" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="310" spans="2:4">
       <c r="B310" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C310" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D310" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="311" spans="2:4">
       <c r="B311" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C311" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D311" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="312" spans="2:4">
       <c r="B312" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C312" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D312" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="313" spans="2:4">
       <c r="B313" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C313" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D313" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="314" spans="2:4">
       <c r="B314" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C314" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D314" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="315" spans="2:4">
       <c r="B315" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C315" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D315" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="316" spans="2:4">
       <c r="B316" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C316" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D316" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="317" spans="2:4">
       <c r="B317" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C317" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D317" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="318" spans="2:4">
       <c r="B318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C318" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D318" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="319" spans="2:4">
       <c r="B319" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C319" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D319" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="320" spans="2:4">
       <c r="B320" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C320" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D320" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="321" spans="2:4">
       <c r="B321" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C321" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D321" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="322" spans="2:4">
       <c r="B322" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C322" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D322" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="323" spans="2:4">
       <c r="B323" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C323" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D323" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="324" spans="2:4">
       <c r="B324" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C324" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D324" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="325" spans="2:4">
       <c r="B325" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C325" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D325" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="326" spans="2:4">
       <c r="B326" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C326" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D326" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="327" spans="2:4">
       <c r="B327" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C327" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D327" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="328" spans="2:4">
       <c r="B328" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C328" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D328" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="329" spans="2:4">
       <c r="B329" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C329" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D329" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="330" spans="2:4">
       <c r="B330" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C330" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D330" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="331" spans="2:4">
       <c r="B331" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C331" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D331" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="332" spans="2:4">
       <c r="B332" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C332" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D332" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="333" spans="2:4">
       <c r="B333" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C333" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D333" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="334" spans="2:4">
       <c r="B334" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C334" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D334" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="335" spans="2:4">
       <c r="B335" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C335" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D335" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="336" spans="2:4">
       <c r="B336" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C336" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D336" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="337" spans="2:4">
       <c r="B337" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C337" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D337" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="338" spans="2:4">
       <c r="B338" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C338" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D338" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="339" spans="2:4">
       <c r="B339" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C339" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D339" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="340" spans="2:4">
       <c r="B340" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C340" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D340" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="341" spans="2:4">
       <c r="B341" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C341" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D341" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="342" spans="2:4">
       <c r="B342" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C342" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D342" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="343" spans="2:4">
       <c r="B343" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C343" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D343" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="344" spans="2:4">
       <c r="B344" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C344" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D344" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="345" spans="2:4">
       <c r="B345" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C345" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D345" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="346" spans="2:4">
       <c r="B346" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C346" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D346" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="347" spans="2:4">
       <c r="B347" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C347" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D347" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="348" spans="2:4">
       <c r="B348" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C348" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D348" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="349" spans="2:4">
       <c r="B349" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C349" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D349" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="350" spans="2:4">
       <c r="B350" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C350" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D350" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="351" spans="2:4">
       <c r="B351" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C351" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D351" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="352" spans="2:4">
       <c r="B352" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C352" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D352" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="353" spans="2:4">
       <c r="B353" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C353" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D353" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="354" spans="2:4">
       <c r="B354" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C354" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D354" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="355" spans="2:4">
       <c r="B355" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C355" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D355" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="356" spans="2:4">
       <c r="B356" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C356" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D356" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="357" spans="2:4">
       <c r="B357" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C357" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D357" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="358" spans="2:4">
       <c r="B358" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C358" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D358" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="359" spans="2:4">
       <c r="B359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C359" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D359" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="360" spans="2:4">
       <c r="B360" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C360" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D360" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="361" spans="2:4">
       <c r="B361" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C361" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D361" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="362" spans="2:4">
       <c r="B362" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C362" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D362" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="363" spans="2:4">
       <c r="B363" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C363" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D363" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="364" spans="2:4">
       <c r="B364" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C364" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D364" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="365" spans="2:4">
       <c r="B365" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C365" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D365" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="366" spans="2:4">
       <c r="B366" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C366" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D366" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="367" spans="2:4">
       <c r="B367" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C367" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D367" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="368" spans="2:4">
       <c r="B368" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C368" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D368" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="369" spans="2:4">
       <c r="B369" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C369" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D369" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="370" spans="2:4">
       <c r="B370" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C370" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D370" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="371" spans="2:4">
       <c r="B371" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C371" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D371" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="372" spans="2:4">
       <c r="B372" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C372" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D372" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="373" spans="2:4">
       <c r="B373" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C373" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D373" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="374" spans="2:4">
       <c r="B374" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C374" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D374" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="375" spans="2:4">
       <c r="B375" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C375" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D375" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="376" spans="2:4">
       <c r="B376" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C376" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D376" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="377" spans="2:4">
       <c r="B377" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C377" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D377" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="378" spans="2:4">
       <c r="B378" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C378" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D378" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="379" spans="2:4">
       <c r="B379" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C379" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D379" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="380" spans="2:4">
       <c r="B380" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C380" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D380" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="381" spans="2:4">
       <c r="B381" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C381" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D381" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="382" spans="2:4">
       <c r="B382" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C382" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D382" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="383" spans="2:4">
       <c r="B383" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C383" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D383" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="384" spans="2:4">
       <c r="B384" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C384" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D384" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="385" spans="2:4">
       <c r="B385" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C385" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D385" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="386" spans="2:4">
       <c r="B386" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C386" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D386" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="387" spans="2:4">
       <c r="B387" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C387" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D387" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="388" spans="2:4">
       <c r="B388" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C388" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D388" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="389" spans="2:4">
       <c r="B389" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C389" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D389" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="390" spans="2:4">
       <c r="B390" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C390" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D390" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="391" spans="2:4">
       <c r="B391" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C391" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D391" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="392" spans="2:4">
       <c r="B392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C392" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D392" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="393" spans="2:4">
       <c r="B393" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C393" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D393" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="394" spans="2:4">
       <c r="B394" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C394" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D394" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="395" spans="2:4">
       <c r="B395" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C395" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D395" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="396" spans="2:4">
       <c r="B396" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C396" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D396" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="397" spans="2:4">
       <c r="B397" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C397" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D397" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="398" spans="2:4">
       <c r="B398" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C398" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D398" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="399" spans="2:4">
       <c r="B399" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C399" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D399" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="400" spans="2:4">
       <c r="B400" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C400" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D400" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="401" spans="2:4">
       <c r="B401" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C401" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D401" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="402" spans="2:4">
       <c r="B402" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C402" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D402" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="403" spans="2:4">
       <c r="B403" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C403" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D403" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="404" spans="2:4">
       <c r="B404" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C404" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D404" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="405" spans="2:4">
       <c r="B405" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C405" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D405" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="406" spans="2:4">
       <c r="B406" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C406" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D406" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="407" spans="2:4">
       <c r="B407" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C407" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D407" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="408" spans="2:4">
       <c r="B408" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C408" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D408" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="409" spans="2:4">
       <c r="B409" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C409" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D409" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="410" spans="2:4">
       <c r="B410" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C410" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D410" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="411" spans="2:4">
       <c r="B411" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C411" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D411" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="412" spans="2:4">
       <c r="B412" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C412" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D412" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="413" spans="2:4">
       <c r="B413" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C413" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D413" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="414" spans="2:4">
       <c r="B414" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C414" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D414" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="415" spans="2:4">
       <c r="B415" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C415" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D415" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="416" spans="2:4">
       <c r="B416" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C416" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D416" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="417" spans="2:4">
       <c r="B417" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C417" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D417" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="418" spans="2:4">
       <c r="B418" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C418" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D418" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="419" spans="2:4">
       <c r="B419" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C419" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D419" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="420" spans="2:4">
       <c r="B420" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C420" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D420" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="421" spans="2:4">
       <c r="B421" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C421" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D421" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="422" spans="2:4">
       <c r="B422" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C422" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D422" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="423" spans="2:4">
       <c r="B423" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C423" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D423" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="424" spans="2:4">
       <c r="B424" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C424" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D424" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="425" spans="2:4">
       <c r="B425" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C425" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D425" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="426" spans="2:4">
       <c r="B426" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C426" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D426" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="427" spans="2:4">
       <c r="B427" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C427" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D427" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="428" spans="2:4">
       <c r="B428" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C428" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D428" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="429" spans="2:4">
       <c r="B429" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C429" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D429" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="430" spans="2:4">
       <c r="B430" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C430" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D430" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="431" spans="2:4">
       <c r="B431" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C431" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D431" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="432" spans="2:4">
       <c r="B432" t="s">
+        <v>434</v>
+      </c>
+      <c r="C432" t="s">
+        <v>916</v>
+      </c>
+      <c r="D432" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4">
+      <c r="B433" t="s">
         <v>435</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C433" t="s">
         <v>917</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D433" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="B433" t="s">
+    <row r="434" spans="2:4">
+      <c r="B434" t="s">
         <v>436</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C434" t="s">
         <v>918</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D434" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="B434" t="s">
+    <row r="435" spans="2:4">
+      <c r="B435" t="s">
         <v>437</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C435" t="s">
         <v>919</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D435" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="B435" t="s">
+    <row r="436" spans="2:4">
+      <c r="B436" t="s">
         <v>438</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C436" t="s">
         <v>920</v>
       </c>
-      <c r="D435" t="s">
+      <c r="D436" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="B436" t="s">
+    <row r="437" spans="2:4">
+      <c r="B437" t="s">
         <v>439</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C437" t="s">
         <v>921</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D437" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="B437" t="s">
+    <row r="438" spans="2:4">
+      <c r="B438" t="s">
         <v>440</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C438" t="s">
         <v>922</v>
       </c>
-      <c r="D437" t="s">
+      <c r="D438" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="B438" t="s">
+    <row r="439" spans="2:4">
+      <c r="B439" t="s">
         <v>441</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C439" t="s">
         <v>923</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D439" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="B439" t="s">
+    <row r="440" spans="2:4">
+      <c r="B440" t="s">
         <v>442</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C440" t="s">
         <v>924</v>
       </c>
-      <c r="D439" t="s">
+      <c r="D440" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="B440" t="s">
+    <row r="441" spans="2:4">
+      <c r="B441" t="s">
         <v>443</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C441" t="s">
         <v>925</v>
       </c>
-      <c r="D440" t="s">
+      <c r="D441" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" t="s">
-        <v>4</v>
-      </c>
-      <c r="B441" t="s">
+    <row r="442" spans="2:4">
+      <c r="B442" t="s">
         <v>444</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C442" t="s">
         <v>926</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D442" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="B442" t="s">
+    <row r="443" spans="2:4">
+      <c r="B443" t="s">
         <v>445</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C443" t="s">
         <v>927</v>
       </c>
-      <c r="D442" t="s">
+      <c r="D443" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="B443" t="s">
+    <row r="444" spans="2:4">
+      <c r="B444" t="s">
         <v>446</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C444" t="s">
         <v>928</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D444" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="B444" t="s">
+    <row r="445" spans="2:4">
+      <c r="B445" t="s">
         <v>447</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C445" t="s">
         <v>929</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D445" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="B445" t="s">
+    <row r="446" spans="2:4">
+      <c r="B446" t="s">
         <v>448</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C446" t="s">
         <v>930</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D446" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="B446" t="s">
+    <row r="447" spans="2:4">
+      <c r="B447" t="s">
         <v>449</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C447" t="s">
         <v>931</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D447" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="B447" t="s">
+    <row r="448" spans="2:4">
+      <c r="B448" t="s">
         <v>450</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C448" t="s">
         <v>932</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D448" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="B448" t="s">
+    <row r="449" spans="2:4">
+      <c r="B449" t="s">
         <v>451</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C449" t="s">
+        <v>890</v>
+      </c>
+      <c r="D449" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4">
+      <c r="B450" t="s">
+        <v>452</v>
+      </c>
+      <c r="C450" t="s">
         <v>933</v>
       </c>
-      <c r="D448" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" t="s">
-        <v>4</v>
-      </c>
-      <c r="B449" t="s">
-        <v>452</v>
-      </c>
-      <c r="C449" t="s">
-        <v>891</v>
-      </c>
-      <c r="D449" t="s">
+      <c r="D450" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="B450" t="s">
+    <row r="451" spans="2:4">
+      <c r="B451" t="s">
         <v>453</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C451" t="s">
         <v>934</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D451" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="B451" t="s">
+    <row r="452" spans="2:4">
+      <c r="B452" t="s">
         <v>454</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C452" t="s">
         <v>935</v>
       </c>
-      <c r="D451" t="s">
+      <c r="D452" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="B452" t="s">
+    <row r="453" spans="2:4">
+      <c r="B453" t="s">
         <v>455</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C453" t="s">
         <v>936</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D453" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="B453" t="s">
+    <row r="454" spans="2:4">
+      <c r="B454" t="s">
         <v>456</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C454" t="s">
         <v>937</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D454" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="B454" t="s">
+    <row r="455" spans="2:4">
+      <c r="B455" t="s">
         <v>457</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C455" t="s">
         <v>938</v>
       </c>
-      <c r="D454" t="s">
+      <c r="D455" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="B455" t="s">
+    <row r="456" spans="2:4">
+      <c r="B456" t="s">
         <v>458</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C456" t="s">
         <v>939</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D456" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="B456" t="s">
+    <row r="457" spans="2:4">
+      <c r="B457" t="s">
         <v>459</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C457" t="s">
         <v>940</v>
       </c>
-      <c r="D456" t="s">
+      <c r="D457" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="B457" t="s">
+    <row r="458" spans="2:4">
+      <c r="B458" t="s">
         <v>460</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C458" t="s">
         <v>941</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D458" t="s">
         <v>1435</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="B458" t="s">
+    <row r="459" spans="2:4">
+      <c r="B459" t="s">
         <v>461</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C459" t="s">
         <v>942</v>
       </c>
-      <c r="D458" t="s">
+      <c r="D459" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="B459" t="s">
+    <row r="460" spans="2:4">
+      <c r="B460" t="s">
         <v>462</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C460" t="s">
         <v>943</v>
       </c>
-      <c r="D459" t="s">
+      <c r="D460" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="B460" t="s">
+    <row r="461" spans="2:4">
+      <c r="B461" t="s">
         <v>463</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C461" t="s">
         <v>944</v>
       </c>
-      <c r="D460" t="s">
+      <c r="D461" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="B461" t="s">
+    <row r="462" spans="2:4">
+      <c r="B462" t="s">
         <v>464</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C462" t="s">
         <v>945</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D462" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="B462" t="s">
+    <row r="463" spans="2:4">
+      <c r="B463" t="s">
         <v>465</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C463" t="s">
         <v>946</v>
       </c>
-      <c r="D462" t="s">
+      <c r="D463" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="B463" t="s">
+    <row r="464" spans="2:4">
+      <c r="B464" t="s">
         <v>466</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C464" t="s">
         <v>947</v>
       </c>
-      <c r="D463" t="s">
+      <c r="D464" t="s">
         <v>1441</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="B464" t="s">
-        <v>467</v>
-      </c>
-      <c r="C464" t="s">
-        <v>948</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="465" spans="2:4">
       <c r="B465" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C465" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D465" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="466" spans="2:4">
       <c r="B466" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C466" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D466" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="467" spans="2:4">
       <c r="B467" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C467" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D467" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="468" spans="2:4">
       <c r="B468" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C468" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D468" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="469" spans="2:4">
       <c r="B469" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C469" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D469" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="470" spans="2:4">
       <c r="B470" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C470" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D470" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="471" spans="2:4">
       <c r="B471" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C471" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D471" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="472" spans="2:4">
       <c r="B472" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C472" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D472" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="473" spans="2:4">
       <c r="B473" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C473" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D473" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="474" spans="2:4">
       <c r="B474" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C474" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D474" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="475" spans="2:4">
       <c r="B475" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C475" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D475" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="476" spans="2:4">
       <c r="B476" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C476" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D476" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="477" spans="2:4">
       <c r="B477" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C477" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D477" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="478" spans="2:4">
       <c r="B478" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C478" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D478" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="479" spans="2:4">
       <c r="B479" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C479" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D479" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="480" spans="2:4">
       <c r="B480" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C480" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D480" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="481" spans="2:4">
       <c r="B481" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C481" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D481" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="482" spans="2:4">
       <c r="B482" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C482" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D482" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="483" spans="2:4">
       <c r="B483" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C483" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D483" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="484" spans="2:4">
       <c r="B484" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C484" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D484" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="485" spans="2:4">
       <c r="B485" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C485" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D485" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="486" spans="2:4">
       <c r="B486" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C486" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D486" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="487" spans="2:4">
       <c r="B487" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C487" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D487" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="488" spans="2:4">
       <c r="B488" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C488" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D488" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="489" spans="2:4">
       <c r="B489" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C489" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D489" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="490" spans="2:4">
       <c r="B490" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C490" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D490" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="491" spans="2:4">
       <c r="B491" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C491" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D491" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="492" spans="2:4">
       <c r="B492" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C492" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D492" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="493" spans="2:4">
       <c r="B493" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C493" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D493" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="494" spans="2:4">
       <c r="B494" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C494" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D494" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="495" spans="2:4">
       <c r="B495" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C495" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D495" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="496" spans="2:4">
       <c r="B496" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C496" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D496" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
